--- a/addons/xvm-stat-log/data.xlsx
+++ b/addons/xvm-stat-log/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="1010">
   <si>
     <t>created</t>
   </si>
@@ -2282,6 +2282,777 @@
   </si>
   <si>
     <t>twins</t>
+  </si>
+  <si>
+    <t>teff</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1526</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>1058</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>1283</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
+    <t>1077</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>846</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>821</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>2354</t>
+  </si>
+  <si>
+    <t>634</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>1309</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>787</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>1742</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>1161</t>
+  </si>
+  <si>
+    <t>1297</t>
+  </si>
+  <si>
+    <t>1164</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>789</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>755</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>753</t>
+  </si>
+  <si>
+    <t>585</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>832</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1078</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>838</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>1447</t>
+  </si>
+  <si>
+    <t>395</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>913</t>
+  </si>
+  <si>
+    <t>984</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>1096</t>
+  </si>
+  <si>
+    <t>1172</t>
+  </si>
+  <si>
+    <t>648</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>1574</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>1290</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>1086</t>
+  </si>
+  <si>
+    <t>1071</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>1353</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>1291</t>
+  </si>
+  <si>
+    <t>621</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1175</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>1179</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>1337</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>542</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>435</t>
+  </si>
+  <si>
+    <t>1377</t>
+  </si>
+  <si>
+    <t>866</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>746</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>1295</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>1336</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>745</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>657</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>978</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>1148</t>
+  </si>
+  <si>
+    <t>1159</t>
+  </si>
+  <si>
+    <t>1277</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>449</t>
+  </si>
+  <si>
+    <t>888</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>617</t>
+  </si>
+  <si>
+    <t>716</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>1355</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>1087</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>933</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>758</t>
+  </si>
+  <si>
+    <t>419</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>1014</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>649</t>
+  </si>
+  <si>
+    <t>979</t>
+  </si>
+  <si>
+    <t>1034</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>766</t>
+  </si>
+  <si>
+    <t>786</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>1422</t>
   </si>
 </sst>
 </file>
@@ -2381,9 +3152,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица14" displayName="Таблица14" ref="A1:N631" totalsRowShown="0">
-  <autoFilter ref="A1:N631"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица12" displayName="Таблица12" ref="A1:O631" totalsRowShown="0">
+  <autoFilter ref="A1:O631"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="name"/>
     <tableColumn id="3" name="vehicle"/>
@@ -2398,6 +3169,7 @@
     <tableColumn id="12" name="twr"/>
     <tableColumn id="13" name="wins"/>
     <tableColumn id="14" name="twins"/>
+    <tableColumn id="15" name="teff"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2716,10 +3488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N631"/>
+  <dimension ref="A1:O631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,9 +3510,10 @@
     <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -2783,8 +3556,11 @@
       <c r="N1" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7203762</v>
       </c>
@@ -2827,8 +3603,9 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14088671</v>
       </c>
@@ -2871,8 +3648,11 @@
       <c r="N3">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8574341</v>
       </c>
@@ -2915,8 +3695,11 @@
       <c r="N4">
         <v>445</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14174584</v>
       </c>
@@ -2959,8 +3742,9 @@
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1645587</v>
       </c>
@@ -3003,8 +3787,11 @@
       <c r="N6">
         <v>288</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14809770</v>
       </c>
@@ -3047,8 +3834,9 @@
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2512086</v>
       </c>
@@ -3091,8 +3879,9 @@
       <c r="N8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>14753871</v>
       </c>
@@ -3135,8 +3924,9 @@
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1233589</v>
       </c>
@@ -3179,8 +3969,9 @@
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2357518</v>
       </c>
@@ -3223,8 +4014,9 @@
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3742956</v>
       </c>
@@ -3267,8 +4059,11 @@
       <c r="N12">
         <v>216</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14653654</v>
       </c>
@@ -3311,8 +4106,9 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14589936</v>
       </c>
@@ -3355,8 +4151,9 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12221839</v>
       </c>
@@ -3399,8 +4196,9 @@
       <c r="N15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7336986</v>
       </c>
@@ -3443,8 +4241,11 @@
       <c r="N16">
         <v>406</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13009684</v>
       </c>
@@ -3487,8 +4288,9 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>14802314</v>
       </c>
@@ -3531,8 +4333,9 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13641116</v>
       </c>
@@ -3575,8 +4378,9 @@
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12675150</v>
       </c>
@@ -3619,8 +4423,9 @@
       <c r="N20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>13729521</v>
       </c>
@@ -3663,8 +4468,11 @@
       <c r="N21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12330750</v>
       </c>
@@ -3707,8 +4515,9 @@
       <c r="N22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13692904</v>
       </c>
@@ -3751,8 +4560,9 @@
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14510175</v>
       </c>
@@ -3795,8 +4605,9 @@
       <c r="N24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12574788</v>
       </c>
@@ -3839,8 +4650,11 @@
       <c r="N25">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>13455658</v>
       </c>
@@ -3883,8 +4697,9 @@
       <c r="N26">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>14417762</v>
       </c>
@@ -3927,8 +4742,9 @@
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14428827</v>
       </c>
@@ -3971,8 +4787,11 @@
       <c r="N28">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7810289</v>
       </c>
@@ -4015,8 +4834,9 @@
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8134993</v>
       </c>
@@ -4059,8 +4879,9 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2315134</v>
       </c>
@@ -4103,8 +4924,9 @@
       <c r="N31">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8263629</v>
       </c>
@@ -4147,8 +4969,9 @@
       <c r="N32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6630746</v>
       </c>
@@ -4191,8 +5014,11 @@
       <c r="N33">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12298996</v>
       </c>
@@ -4235,8 +5061,11 @@
       <c r="N34">
         <v>150</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13185745</v>
       </c>
@@ -4279,8 +5108,9 @@
       <c r="N35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1645587</v>
       </c>
@@ -4323,8 +5153,11 @@
       <c r="N36">
         <v>452</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>177813</v>
       </c>
@@ -4367,8 +5200,11 @@
       <c r="N37">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11287605</v>
       </c>
@@ -4411,8 +5247,11 @@
       <c r="N38">
         <v>233</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12841131</v>
       </c>
@@ -4455,8 +5294,9 @@
       <c r="N39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14455172</v>
       </c>
@@ -4499,8 +5339,11 @@
       <c r="N40">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3319375</v>
       </c>
@@ -4543,8 +5386,11 @@
       <c r="N41">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7924916</v>
       </c>
@@ -4587,8 +5433,9 @@
       <c r="N42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6043670</v>
       </c>
@@ -4631,8 +5478,11 @@
       <c r="N43">
         <v>376</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12482776</v>
       </c>
@@ -4675,8 +5525,9 @@
       <c r="N44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11921349</v>
       </c>
@@ -4719,8 +5570,11 @@
       <c r="N45">
         <v>243</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12664049</v>
       </c>
@@ -4763,8 +5617,11 @@
       <c r="N46">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14560758</v>
       </c>
@@ -4807,8 +5664,9 @@
       <c r="N47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5437210</v>
       </c>
@@ -4851,8 +5709,9 @@
       <c r="N48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11188576</v>
       </c>
@@ -4895,8 +5754,11 @@
       <c r="N49">
         <v>163</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7036341</v>
       </c>
@@ -4939,8 +5801,11 @@
       <c r="N50">
         <v>107</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7457093</v>
       </c>
@@ -4983,8 +5848,11 @@
       <c r="N51">
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>14386229</v>
       </c>
@@ -5027,8 +5895,9 @@
       <c r="N52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4534087</v>
       </c>
@@ -5071,8 +5940,11 @@
       <c r="N53">
         <v>447</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5638182</v>
       </c>
@@ -5115,8 +5987,11 @@
       <c r="N54">
         <v>62</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4619827</v>
       </c>
@@ -5159,8 +6034,9 @@
       <c r="N55">
         <v>21</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14357968</v>
       </c>
@@ -5203,8 +6079,9 @@
       <c r="N56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3917452</v>
       </c>
@@ -5247,8 +6124,11 @@
       <c r="N57">
         <v>206</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>13450867</v>
       </c>
@@ -5291,8 +6171,9 @@
       <c r="N58">
         <v>132</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4457498</v>
       </c>
@@ -5335,8 +6216,11 @@
       <c r="N59">
         <v>229</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4952601</v>
       </c>
@@ -5379,8 +6263,11 @@
       <c r="N60">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12760525</v>
       </c>
@@ -5423,8 +6310,11 @@
       <c r="N61">
         <v>246</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11354592</v>
       </c>
@@ -5467,8 +6357,9 @@
       <c r="N62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1994587</v>
       </c>
@@ -5511,8 +6402,9 @@
       <c r="N63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5814360</v>
       </c>
@@ -5555,8 +6447,11 @@
       <c r="N64">
         <v>58</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13889588</v>
       </c>
@@ -5599,8 +6494,9 @@
       <c r="N65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14749337</v>
       </c>
@@ -5643,8 +6539,9 @@
       <c r="N66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>7079189</v>
       </c>
@@ -5687,8 +6584,11 @@
       <c r="N67">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>13037613</v>
       </c>
@@ -5731,8 +6631,9 @@
       <c r="N68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>13593506</v>
       </c>
@@ -5775,8 +6676,11 @@
       <c r="N69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O69" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6063254</v>
       </c>
@@ -5819,8 +6723,11 @@
       <c r="N70">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O70" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>13719294</v>
       </c>
@@ -5863,8 +6770,9 @@
       <c r="N71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12881141</v>
       </c>
@@ -5907,8 +6815,9 @@
       <c r="N72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5724480</v>
       </c>
@@ -5951,8 +6860,9 @@
       <c r="N73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13610192</v>
       </c>
@@ -5995,8 +6905,9 @@
       <c r="N74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>6469080</v>
       </c>
@@ -6039,8 +6950,11 @@
       <c r="N75">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O75" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14109597</v>
       </c>
@@ -6083,8 +6997,9 @@
       <c r="N76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>14429313</v>
       </c>
@@ -6127,8 +7042,9 @@
       <c r="N77">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>13287190</v>
       </c>
@@ -6171,8 +7087,11 @@
       <c r="N78">
         <v>23</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O78" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14728370</v>
       </c>
@@ -6215,8 +7134,9 @@
       <c r="N79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>13404380</v>
       </c>
@@ -6259,8 +7179,9 @@
       <c r="N80">
         <v>30</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O80" s="1"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5426846</v>
       </c>
@@ -6303,8 +7224,9 @@
       <c r="N81">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O81" s="1"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2117512</v>
       </c>
@@ -6347,8 +7269,11 @@
       <c r="N82">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O82" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>13235645</v>
       </c>
@@ -6391,8 +7316,9 @@
       <c r="N83">
         <v>25</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O83" s="1"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3031732</v>
       </c>
@@ -6435,8 +7361,11 @@
       <c r="N84">
         <v>34</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O84" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>519821</v>
       </c>
@@ -6479,8 +7408,11 @@
       <c r="N85">
         <v>1075</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O85" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>13825683</v>
       </c>
@@ -6523,8 +7455,9 @@
       <c r="N86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>13049153</v>
       </c>
@@ -6567,8 +7500,11 @@
       <c r="N87">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O87" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8458971</v>
       </c>
@@ -6611,8 +7547,11 @@
       <c r="N88">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O88" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>13844875</v>
       </c>
@@ -6655,8 +7594,9 @@
       <c r="N89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2983651</v>
       </c>
@@ -6699,8 +7639,11 @@
       <c r="N90">
         <v>182</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O90" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>13249131</v>
       </c>
@@ -6743,8 +7686,11 @@
       <c r="N91">
         <v>26</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O91" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>11505668</v>
       </c>
@@ -6787,8 +7733,9 @@
       <c r="N92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>8360154</v>
       </c>
@@ -6831,8 +7778,11 @@
       <c r="N93">
         <v>72</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O93" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>8691680</v>
       </c>
@@ -6875,8 +7825,11 @@
       <c r="N94">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O94" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>11213455</v>
       </c>
@@ -6919,8 +7872,11 @@
       <c r="N95">
         <v>44</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O95" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>8155232</v>
       </c>
@@ -6963,8 +7919,11 @@
       <c r="N96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O96" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4949978</v>
       </c>
@@ -7007,8 +7966,9 @@
       <c r="N97">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>12775744</v>
       </c>
@@ -7051,8 +8011,11 @@
       <c r="N98">
         <v>124</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O98" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>12942384</v>
       </c>
@@ -7095,8 +8058,11 @@
       <c r="N99">
         <v>69</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O99" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>864081</v>
       </c>
@@ -7139,8 +8105,11 @@
       <c r="N100">
         <v>90</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O100" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>12772469</v>
       </c>
@@ -7183,8 +8152,11 @@
       <c r="N101">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O101" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>8427526</v>
       </c>
@@ -7227,8 +8199,11 @@
       <c r="N102">
         <v>239</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O102" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1608608</v>
       </c>
@@ -7271,8 +8246,11 @@
       <c r="N103">
         <v>25</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O103" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5002495</v>
       </c>
@@ -7315,8 +8293,11 @@
       <c r="N104">
         <v>615</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O104" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10690625</v>
       </c>
@@ -7359,8 +8340,11 @@
       <c r="N105">
         <v>49</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O105" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>12772586</v>
       </c>
@@ -7403,8 +8387,11 @@
       <c r="N106">
         <v>64</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O106" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8037437</v>
       </c>
@@ -7447,8 +8434,9 @@
       <c r="N107">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O107" s="1"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>12184223</v>
       </c>
@@ -7491,8 +8479,9 @@
       <c r="N108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O108" s="1"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>13932430</v>
       </c>
@@ -7535,8 +8524,9 @@
       <c r="N109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O109" s="1"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2922834</v>
       </c>
@@ -7579,8 +8569,11 @@
       <c r="N110">
         <v>29</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O110" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>14476136</v>
       </c>
@@ -7623,8 +8616,9 @@
       <c r="N111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O111" s="1"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5526164</v>
       </c>
@@ -7667,8 +8661,11 @@
       <c r="N112">
         <v>23</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O112" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2185502</v>
       </c>
@@ -7711,8 +8708,11 @@
       <c r="N113">
         <v>21</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O113" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>12045492</v>
       </c>
@@ -7755,8 +8755,9 @@
       <c r="N114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O114" s="1"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4350760</v>
       </c>
@@ -7799,8 +8800,11 @@
       <c r="N115">
         <v>189</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O115" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5613696</v>
       </c>
@@ -7843,8 +8847,9 @@
       <c r="N116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O116" s="1"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6638192</v>
       </c>
@@ -7887,8 +8892,9 @@
       <c r="N117">
         <v>12</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O117" s="1"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>13074939</v>
       </c>
@@ -7931,8 +8937,11 @@
       <c r="N118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O118" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>8768662</v>
       </c>
@@ -7975,8 +8984,11 @@
       <c r="N119">
         <v>288</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O119" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>13536811</v>
       </c>
@@ -8019,8 +9031,11 @@
       <c r="N120">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O120" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3863532</v>
       </c>
@@ -8063,8 +9078,9 @@
       <c r="N121">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O121" s="1"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>13329548</v>
       </c>
@@ -8107,8 +9123,9 @@
       <c r="N122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O122" s="1"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>11973786</v>
       </c>
@@ -8151,8 +9168,9 @@
       <c r="N123">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O123" s="1"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>12149564</v>
       </c>
@@ -8195,8 +9213,9 @@
       <c r="N124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O124" s="1"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>13999594</v>
       </c>
@@ -8239,8 +9258,9 @@
       <c r="N125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O125" s="1"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5083678</v>
       </c>
@@ -8283,8 +9303,9 @@
       <c r="N126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O126" s="1"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>6633824</v>
       </c>
@@ -8327,8 +9348,11 @@
       <c r="N127">
         <v>271</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O127" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3322950</v>
       </c>
@@ -8371,8 +9395,11 @@
       <c r="N128">
         <v>112</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O128" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5925723</v>
       </c>
@@ -8415,8 +9442,11 @@
       <c r="N129">
         <v>115</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O129" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>12313966</v>
       </c>
@@ -8459,8 +9489,11 @@
       <c r="N130">
         <v>124</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O130" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2612064</v>
       </c>
@@ -8503,8 +9536,9 @@
       <c r="N131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O131" s="1"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5586709</v>
       </c>
@@ -8547,8 +9581,9 @@
       <c r="N132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O132" s="1"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>13847045</v>
       </c>
@@ -8591,8 +9626,9 @@
       <c r="N133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O133" s="1"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1047085</v>
       </c>
@@ -8635,8 +9671,11 @@
       <c r="N134">
         <v>110</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O134" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5700233</v>
       </c>
@@ -8679,8 +9718,11 @@
       <c r="N135">
         <v>77</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O135" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5526164</v>
       </c>
@@ -8723,8 +9765,11 @@
       <c r="N136">
         <v>23</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O136" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5748736</v>
       </c>
@@ -8767,8 +9812,11 @@
       <c r="N137">
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O137" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6660119</v>
       </c>
@@ -8811,8 +9859,11 @@
       <c r="N138">
         <v>178</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O138" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>14849985</v>
       </c>
@@ -8855,8 +9906,9 @@
       <c r="N139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O139" s="1"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>12601642</v>
       </c>
@@ -8899,8 +9951,9 @@
       <c r="N140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1844228</v>
       </c>
@@ -8943,8 +9996,11 @@
       <c r="N141">
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O141" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4674577</v>
       </c>
@@ -8987,8 +10043,11 @@
       <c r="N142">
         <v>19</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O142" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6882576</v>
       </c>
@@ -9031,8 +10090,11 @@
       <c r="N143">
         <v>236</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O143" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2517397</v>
       </c>
@@ -9075,8 +10137,9 @@
       <c r="N144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O144" s="1"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>12780825</v>
       </c>
@@ -9119,8 +10182,9 @@
       <c r="N145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O145" s="1"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3642197</v>
       </c>
@@ -9163,8 +10227,11 @@
       <c r="N146">
         <v>32</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O146" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>8738273</v>
       </c>
@@ -9207,8 +10274,11 @@
       <c r="N147">
         <v>42</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O147" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4537588</v>
       </c>
@@ -9251,8 +10321,11 @@
       <c r="N148">
         <v>85</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O148" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>7084497</v>
       </c>
@@ -9295,8 +10368,11 @@
       <c r="N149">
         <v>35</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O149" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>12577270</v>
       </c>
@@ -9339,8 +10415,9 @@
       <c r="N150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O150" s="1"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>12008633</v>
       </c>
@@ -9383,8 +10460,11 @@
       <c r="N151">
         <v>190</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O151" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>10846652</v>
       </c>
@@ -9427,8 +10507,9 @@
       <c r="N152">
         <v>25</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O152" s="1"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7674293</v>
       </c>
@@ -9471,8 +10552,9 @@
       <c r="N153">
         <v>37</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O153" s="1"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>13629207</v>
       </c>
@@ -9515,8 +10597,9 @@
       <c r="N154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O154" s="1"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7324372</v>
       </c>
@@ -9559,8 +10642,11 @@
       <c r="N155">
         <v>21</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O155" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1797955</v>
       </c>
@@ -9603,8 +10689,11 @@
       <c r="N156">
         <v>53</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O156" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>12165892</v>
       </c>
@@ -9647,8 +10736,9 @@
       <c r="N157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O157" s="1"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1287296</v>
       </c>
@@ -9691,8 +10781,11 @@
       <c r="N158">
         <v>45</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O158" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6574120</v>
       </c>
@@ -9735,8 +10828,9 @@
       <c r="N159">
         <v>38</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O159" s="1"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>11375013</v>
       </c>
@@ -9779,8 +10873,9 @@
       <c r="N160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O160" s="1"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>8202688</v>
       </c>
@@ -9823,8 +10918,11 @@
       <c r="N161">
         <v>30</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O161" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1547134</v>
       </c>
@@ -9867,8 +10965,11 @@
       <c r="N162">
         <v>141</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O162" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7478740</v>
       </c>
@@ -9911,8 +11012,11 @@
       <c r="N163">
         <v>6</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O163" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>11320308</v>
       </c>
@@ -9955,8 +11059,11 @@
       <c r="N164">
         <v>20</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O164" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>8777599</v>
       </c>
@@ -9999,8 +11106,11 @@
       <c r="N165">
         <v>126</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O165" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3334623</v>
       </c>
@@ -10043,8 +11153,11 @@
       <c r="N166">
         <v>31</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O166" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3937770</v>
       </c>
@@ -10087,8 +11200,9 @@
       <c r="N167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O167" s="1"/>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5343585</v>
       </c>
@@ -10131,8 +11245,11 @@
       <c r="N168">
         <v>10</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O168" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7142311</v>
       </c>
@@ -10175,8 +11292,11 @@
       <c r="N169">
         <v>115</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O169" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>13945941</v>
       </c>
@@ -10219,8 +11339,9 @@
       <c r="N170">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O170" s="1"/>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>12735478</v>
       </c>
@@ -10263,8 +11384,11 @@
       <c r="N171">
         <v>10</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O171" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>5526164</v>
       </c>
@@ -10307,8 +11431,11 @@
       <c r="N172">
         <v>23</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O172" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>13914971</v>
       </c>
@@ -10351,8 +11478,9 @@
       <c r="N173">
         <v>13</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O173" s="1"/>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>14476303</v>
       </c>
@@ -10395,8 +11523,9 @@
       <c r="N174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O174" s="1"/>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>13278776</v>
       </c>
@@ -10439,8 +11568,9 @@
       <c r="N175">
         <v>14</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O175" s="1"/>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4007342</v>
       </c>
@@ -10483,8 +11613,11 @@
       <c r="N176">
         <v>195</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O176" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>11858213</v>
       </c>
@@ -10527,8 +11660,11 @@
       <c r="N177">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O177" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>13398677</v>
       </c>
@@ -10571,8 +11707,9 @@
       <c r="N178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O178" s="1"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3331036</v>
       </c>
@@ -10615,8 +11752,11 @@
       <c r="N179">
         <v>402</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O179" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>11317094</v>
       </c>
@@ -10659,8 +11799,9 @@
       <c r="N180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O180" s="1"/>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>12683887</v>
       </c>
@@ -10703,8 +11844,9 @@
       <c r="N181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O181" s="1"/>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>14171934</v>
       </c>
@@ -10747,8 +11889,11 @@
       <c r="N182">
         <v>42</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O182" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>14028091</v>
       </c>
@@ -10791,8 +11936,9 @@
       <c r="N183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O183" s="1"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>13495044</v>
       </c>
@@ -10835,8 +11981,11 @@
       <c r="N184">
         <v>9</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O184" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>14435393</v>
       </c>
@@ -10879,8 +12028,9 @@
       <c r="N185">
         <v>5</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O185" s="1"/>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>10822856</v>
       </c>
@@ -10923,8 +12073,11 @@
       <c r="N186">
         <v>168</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O186" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>12587759</v>
       </c>
@@ -10967,8 +12120,11 @@
       <c r="N187">
         <v>10</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O187" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>12928833</v>
       </c>
@@ -11011,8 +12167,11 @@
       <c r="N188">
         <v>6</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O188" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3464406</v>
       </c>
@@ -11055,8 +12214,11 @@
       <c r="N189">
         <v>312</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O189" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1471755</v>
       </c>
@@ -11099,8 +12261,9 @@
       <c r="N190">
         <v>15</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O190" s="1"/>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>550826</v>
       </c>
@@ -11143,8 +12306,11 @@
       <c r="N191">
         <v>33</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O191" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>14603187</v>
       </c>
@@ -11187,8 +12353,9 @@
       <c r="N192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O192" s="1"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>6055308</v>
       </c>
@@ -11231,8 +12398,11 @@
       <c r="N193">
         <v>30</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O193" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4329891</v>
       </c>
@@ -11275,8 +12445,11 @@
       <c r="N194">
         <v>36</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O194" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4219629</v>
       </c>
@@ -11319,8 +12492,11 @@
       <c r="N195">
         <v>21</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O195" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>13692272</v>
       </c>
@@ -11363,8 +12539,11 @@
       <c r="N196">
         <v>4</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O196" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1725048</v>
       </c>
@@ -11407,8 +12586,9 @@
       <c r="N197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O197" s="1"/>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>8767055</v>
       </c>
@@ -11451,8 +12631,11 @@
       <c r="N198">
         <v>25</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O198" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>5526164</v>
       </c>
@@ -11495,8 +12678,11 @@
       <c r="N199">
         <v>23</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O199" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>13935567</v>
       </c>
@@ -11539,8 +12725,11 @@
       <c r="N200">
         <v>52</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O200" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3956125</v>
       </c>
@@ -11583,8 +12772,9 @@
       <c r="N201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O201" s="1"/>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>10624858</v>
       </c>
@@ -11627,8 +12817,11 @@
       <c r="N202">
         <v>177</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O202" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>12938467</v>
       </c>
@@ -11671,8 +12864,9 @@
       <c r="N203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O203" s="1"/>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3593260</v>
       </c>
@@ -11715,8 +12909,11 @@
       <c r="N204">
         <v>200</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O204" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>7637938</v>
       </c>
@@ -11759,8 +12956,9 @@
       <c r="N205">
         <v>25</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O205" s="1"/>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>13874241</v>
       </c>
@@ -11803,8 +13001,11 @@
       <c r="N206">
         <v>65</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O206" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>13168974</v>
       </c>
@@ -11847,8 +13048,9 @@
       <c r="N207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O207" s="1"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>610801</v>
       </c>
@@ -11891,8 +13093,9 @@
       <c r="N208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O208" s="1"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>6795602</v>
       </c>
@@ -11935,8 +13138,9 @@
       <c r="N209">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O209" s="1"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>12499214</v>
       </c>
@@ -11979,8 +13183,9 @@
       <c r="N210">
         <v>15</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O210" s="1"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>6280914</v>
       </c>
@@ -12023,8 +13228,11 @@
       <c r="N211">
         <v>19</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O211" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>11135841</v>
       </c>
@@ -12067,8 +13275,11 @@
       <c r="N212">
         <v>50</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O212" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>74743</v>
       </c>
@@ -12111,8 +13322,11 @@
       <c r="N213">
         <v>115</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O213" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>12930487</v>
       </c>
@@ -12155,8 +13369,9 @@
       <c r="N214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O214" s="1"/>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>14744776</v>
       </c>
@@ -12199,8 +13414,9 @@
       <c r="N215">
         <v>33</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O215" s="1"/>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>13156648</v>
       </c>
@@ -12243,8 +13459,9 @@
       <c r="N216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O216" s="1"/>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>8624729</v>
       </c>
@@ -12287,8 +13504,11 @@
       <c r="N217">
         <v>421</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O217" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>227518</v>
       </c>
@@ -12331,8 +13551,9 @@
       <c r="N218">
         <v>17</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O218" s="1"/>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>6334018</v>
       </c>
@@ -12375,8 +13596,9 @@
       <c r="N219">
         <v>6</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O219" s="1"/>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>13088052</v>
       </c>
@@ -12419,8 +13641,11 @@
       <c r="N220">
         <v>21</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O220" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>14437486</v>
       </c>
@@ -12463,8 +13688,9 @@
       <c r="N221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O221" s="1"/>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>5809274</v>
       </c>
@@ -12507,8 +13733,11 @@
       <c r="N222">
         <v>42</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O222" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>14033744</v>
       </c>
@@ -12551,8 +13780,9 @@
       <c r="N223">
         <v>22</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O223" s="1"/>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>11428100</v>
       </c>
@@ -12595,8 +13825,11 @@
       <c r="N224">
         <v>11</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O224" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>14721149</v>
       </c>
@@ -12639,8 +13872,9 @@
       <c r="N225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O225" s="1"/>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>12504901</v>
       </c>
@@ -12683,8 +13917,11 @@
       <c r="N226">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O226" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>164420</v>
       </c>
@@ -12727,8 +13964,11 @@
       <c r="N227">
         <v>604</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O227" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>5526164</v>
       </c>
@@ -12771,8 +14011,11 @@
       <c r="N228">
         <v>23</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O228" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>12372448</v>
       </c>
@@ -12815,8 +14058,9 @@
       <c r="N229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O229" s="1"/>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1503592</v>
       </c>
@@ -12859,8 +14103,9 @@
       <c r="N230">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O230" s="1"/>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>6876355</v>
       </c>
@@ -12903,8 +14148,9 @@
       <c r="N231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O231" s="1"/>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>13219602</v>
       </c>
@@ -12947,8 +14193,9 @@
       <c r="N232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O232" s="1"/>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>8750156</v>
       </c>
@@ -12991,8 +14238,9 @@
       <c r="N233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O233" s="1"/>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>344171</v>
       </c>
@@ -13035,8 +14283,11 @@
       <c r="N234">
         <v>13</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O234" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>7986939</v>
       </c>
@@ -13079,8 +14330,11 @@
       <c r="N235">
         <v>70</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O235" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>12041791</v>
       </c>
@@ -13123,8 +14377,11 @@
       <c r="N236">
         <v>34</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O236" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1141254</v>
       </c>
@@ -13167,8 +14424,11 @@
       <c r="N237">
         <v>1585</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O237" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>6966381</v>
       </c>
@@ -13211,8 +14471,9 @@
       <c r="N238">
         <v>25</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O238" s="1"/>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>3078725</v>
       </c>
@@ -13255,8 +14516,11 @@
       <c r="N239">
         <v>20</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O239" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>8949485</v>
       </c>
@@ -13299,8 +14563,11 @@
       <c r="N240">
         <v>10</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O240" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>11776902</v>
       </c>
@@ -13343,8 +14610,9 @@
       <c r="N241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O241" s="1"/>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>8577197</v>
       </c>
@@ -13387,8 +14655,11 @@
       <c r="N242">
         <v>82</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O242" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>12057453</v>
       </c>
@@ -13431,8 +14702,9 @@
       <c r="N243">
         <v>6</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O243" s="1"/>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>13255603</v>
       </c>
@@ -13475,8 +14747,9 @@
       <c r="N244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O244" s="1"/>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>5853487</v>
       </c>
@@ -13519,8 +14792,11 @@
       <c r="N245">
         <v>617</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O245" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>7208615</v>
       </c>
@@ -13563,8 +14839,11 @@
       <c r="N246">
         <v>136</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O246" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>8213120</v>
       </c>
@@ -13607,8 +14886,11 @@
       <c r="N247">
         <v>31</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O247" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>13669117</v>
       </c>
@@ -13651,8 +14933,11 @@
       <c r="N248">
         <v>76</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O248" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4724199</v>
       </c>
@@ -13695,8 +14980,9 @@
       <c r="N249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O249" s="1"/>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>2229277</v>
       </c>
@@ -13739,8 +15025,11 @@
       <c r="N250">
         <v>128</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O250" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1384883</v>
       </c>
@@ -13783,8 +15072,9 @@
       <c r="N251">
         <v>6</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O251" s="1"/>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>10780887</v>
       </c>
@@ -13827,8 +15117,11 @@
       <c r="N252">
         <v>35</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O252" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>828474</v>
       </c>
@@ -13871,8 +15164,11 @@
       <c r="N253">
         <v>250</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O253" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1439450</v>
       </c>
@@ -13915,8 +15211,11 @@
       <c r="N254">
         <v>10</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O254" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>14883722</v>
       </c>
@@ -13959,8 +15258,9 @@
       <c r="N255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O255" s="1"/>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>13955027</v>
       </c>
@@ -14003,8 +15303,9 @@
       <c r="N256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O256" s="1"/>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1654769</v>
       </c>
@@ -14047,8 +15348,11 @@
       <c r="N257">
         <v>27</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O257" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5526164</v>
       </c>
@@ -14091,8 +15395,11 @@
       <c r="N258">
         <v>23</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O258" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4725712</v>
       </c>
@@ -14135,8 +15442,9 @@
       <c r="N259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O259" s="1"/>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2578815</v>
       </c>
@@ -14179,8 +15487,11 @@
       <c r="N260">
         <v>124</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O260" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>12322164</v>
       </c>
@@ -14223,8 +15534,11 @@
       <c r="N261">
         <v>70</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O261" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>6225395</v>
       </c>
@@ -14267,8 +15581,9 @@
       <c r="N262">
         <v>26</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O262" s="1"/>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>11350043</v>
       </c>
@@ -14311,8 +15626,11 @@
       <c r="N263">
         <v>68</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O263" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>7420984</v>
       </c>
@@ -14355,8 +15673,11 @@
       <c r="N264">
         <v>19</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O264" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>11314769</v>
       </c>
@@ -14399,8 +15720,11 @@
       <c r="N265">
         <v>145</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O265" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>8304366</v>
       </c>
@@ -14443,8 +15767,9 @@
       <c r="N266">
         <v>11</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O266" s="1"/>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>3751068</v>
       </c>
@@ -14487,8 +15812,11 @@
       <c r="N267">
         <v>41</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O267" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>6812666</v>
       </c>
@@ -14531,8 +15859,11 @@
       <c r="N268">
         <v>6</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O268" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>13224333</v>
       </c>
@@ -14575,8 +15906,11 @@
       <c r="N269">
         <v>17</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O269" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>7482874</v>
       </c>
@@ -14619,8 +15953,9 @@
       <c r="N270">
         <v>11</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O270" s="1"/>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>7752219</v>
       </c>
@@ -14663,8 +15998,11 @@
       <c r="N271">
         <v>58</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O271" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2911318</v>
       </c>
@@ -14707,8 +16045,11 @@
       <c r="N272">
         <v>31</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O272" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>11473039</v>
       </c>
@@ -14751,8 +16092,9 @@
       <c r="N273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O273" s="1"/>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>8111305</v>
       </c>
@@ -14795,8 +16137,9 @@
       <c r="N274">
         <v>6</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O274" s="1"/>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>3075890</v>
       </c>
@@ -14839,8 +16182,9 @@
       <c r="N275">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O275" s="1"/>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>3094803</v>
       </c>
@@ -14883,8 +16227,9 @@
       <c r="N276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O276" s="1"/>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>13815447</v>
       </c>
@@ -14927,8 +16272,9 @@
       <c r="N277">
         <v>8</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O277" s="1"/>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>11406071</v>
       </c>
@@ -14971,8 +16317,11 @@
       <c r="N278">
         <v>103</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O278" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>11720417</v>
       </c>
@@ -15015,8 +16364,11 @@
       <c r="N279">
         <v>23</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O279" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>12701037</v>
       </c>
@@ -15059,8 +16411,11 @@
       <c r="N280">
         <v>100</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O280" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>14569755</v>
       </c>
@@ -15103,8 +16458,9 @@
       <c r="N281">
         <v>72</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O281" s="1"/>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1874302</v>
       </c>
@@ -15147,8 +16503,11 @@
       <c r="N282">
         <v>17</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O282" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>10991184</v>
       </c>
@@ -15191,8 +16550,9 @@
       <c r="N283">
         <v>2</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O283" s="1"/>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>751326</v>
       </c>
@@ -15235,8 +16595,9 @@
       <c r="N284">
         <v>5</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O284" s="1"/>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2153060</v>
       </c>
@@ -15279,8 +16640,11 @@
       <c r="N285">
         <v>1213</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O285" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>5526164</v>
       </c>
@@ -15323,8 +16687,11 @@
       <c r="N286">
         <v>23</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O286" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1185986</v>
       </c>
@@ -15367,8 +16734,11 @@
       <c r="N287">
         <v>14</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O287" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>5289561</v>
       </c>
@@ -15411,8 +16781,11 @@
       <c r="N288">
         <v>1139</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O288" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>8192777</v>
       </c>
@@ -15455,8 +16828,9 @@
       <c r="N289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O289" s="1"/>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>7841768</v>
       </c>
@@ -15499,8 +16873,9 @@
       <c r="N290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O290" s="1"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>5568120</v>
       </c>
@@ -15543,8 +16918,9 @@
       <c r="N291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O291" s="1"/>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>14920115</v>
       </c>
@@ -15587,8 +16963,9 @@
       <c r="N292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O292" s="1"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>13156664</v>
       </c>
@@ -15631,8 +17008,9 @@
       <c r="N293">
         <v>7</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O293" s="1"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>4828299</v>
       </c>
@@ -15675,8 +17053,11 @@
       <c r="N294">
         <v>16</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O294" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>14222873</v>
       </c>
@@ -15719,8 +17100,9 @@
       <c r="N295">
         <v>3</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O295" s="1"/>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>3823640</v>
       </c>
@@ -15763,8 +17145,9 @@
       <c r="N296">
         <v>50</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O296" s="1"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>12451921</v>
       </c>
@@ -15807,8 +17190,11 @@
       <c r="N297">
         <v>19</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O297" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>5339552</v>
       </c>
@@ -15851,8 +17237,9 @@
       <c r="N298">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O298" s="1"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>13901426</v>
       </c>
@@ -15895,8 +17282,9 @@
       <c r="N299">
         <v>136</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O299" s="1"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>5024020</v>
       </c>
@@ -15939,8 +17327,9 @@
       <c r="N300">
         <v>11</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O300" s="1"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1147795</v>
       </c>
@@ -15983,8 +17372,9 @@
       <c r="N301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O301" s="1"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>6348610</v>
       </c>
@@ -16027,8 +17417,11 @@
       <c r="N302">
         <v>54</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O302" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1368542</v>
       </c>
@@ -16071,8 +17464,11 @@
       <c r="N303">
         <v>82</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O303" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>397227</v>
       </c>
@@ -16115,8 +17511,11 @@
       <c r="N304">
         <v>26</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O304" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>13291998</v>
       </c>
@@ -16159,8 +17558,11 @@
       <c r="N305">
         <v>66</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O305" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>5620920</v>
       </c>
@@ -16203,8 +17605,11 @@
       <c r="N306">
         <v>96</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O306" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2865774</v>
       </c>
@@ -16247,8 +17652,9 @@
       <c r="N307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O307" s="1"/>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>4789200</v>
       </c>
@@ -16291,8 +17697,9 @@
       <c r="N308">
         <v>15</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O308" s="1"/>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>11680618</v>
       </c>
@@ -16335,8 +17742,11 @@
       <c r="N309">
         <v>40</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O309" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>86067</v>
       </c>
@@ -16379,8 +17789,9 @@
       <c r="N310">
         <v>8</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O310" s="1"/>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>8515594</v>
       </c>
@@ -16423,8 +17834,11 @@
       <c r="N311">
         <v>20</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O311" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>4971949</v>
       </c>
@@ -16467,8 +17881,11 @@
       <c r="N312">
         <v>225</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O312" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>14160717</v>
       </c>
@@ -16511,8 +17928,11 @@
       <c r="N313">
         <v>56</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O313" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2424592</v>
       </c>
@@ -16555,8 +17975,11 @@
       <c r="N314">
         <v>22</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O314" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>10980527</v>
       </c>
@@ -16599,8 +18022,9 @@
       <c r="N315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O315" s="1"/>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2820595</v>
       </c>
@@ -16643,8 +18067,11 @@
       <c r="N316">
         <v>608</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O316" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>13157062</v>
       </c>
@@ -16687,8 +18114,11 @@
       <c r="N317">
         <v>31</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O317" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>5526164</v>
       </c>
@@ -16731,8 +18161,11 @@
       <c r="N318">
         <v>23</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O318" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>13417112</v>
       </c>
@@ -16775,8 +18208,11 @@
       <c r="N319">
         <v>14</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O319" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>11801030</v>
       </c>
@@ -16819,8 +18255,11 @@
       <c r="N320">
         <v>33</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O320" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>8794939</v>
       </c>
@@ -16863,8 +18302,11 @@
       <c r="N321">
         <v>15</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O321" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>6824723</v>
       </c>
@@ -16907,8 +18349,11 @@
       <c r="N322">
         <v>66</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O322" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>7133925</v>
       </c>
@@ -16951,8 +18396,9 @@
       <c r="N323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O323" s="1"/>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4112666</v>
       </c>
@@ -16995,8 +18441,11 @@
       <c r="N324">
         <v>125</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O324" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>5472227</v>
       </c>
@@ -17039,8 +18488,11 @@
       <c r="N325">
         <v>34</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O325" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2993324</v>
       </c>
@@ -17083,8 +18535,11 @@
       <c r="N326">
         <v>242</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O326" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>4415570</v>
       </c>
@@ -17127,8 +18582,11 @@
       <c r="N327">
         <v>105</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O327" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>12215638</v>
       </c>
@@ -17171,8 +18629,9 @@
       <c r="N328">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O328" s="1"/>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>14088023</v>
       </c>
@@ -17215,8 +18674,11 @@
       <c r="N329">
         <v>15</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O329" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>4147091</v>
       </c>
@@ -17259,8 +18721,11 @@
       <c r="N330">
         <v>25</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O330" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>3253561</v>
       </c>
@@ -17303,8 +18768,11 @@
       <c r="N331">
         <v>209</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O331" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>7181414</v>
       </c>
@@ -17347,8 +18815,9 @@
       <c r="N332">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O332" s="1"/>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>11621688</v>
       </c>
@@ -17391,8 +18860,11 @@
       <c r="N333">
         <v>43</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O333" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>6337509</v>
       </c>
@@ -17435,8 +18907,11 @@
       <c r="N334">
         <v>154</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O334" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>13461814</v>
       </c>
@@ -17479,8 +18954,9 @@
       <c r="N335">
         <v>51</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O335" s="1"/>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>40561</v>
       </c>
@@ -17523,8 +18999,9 @@
       <c r="N336">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O336" s="1"/>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>6959454</v>
       </c>
@@ -17567,8 +19044,11 @@
       <c r="N337">
         <v>103</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O337" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>5393542</v>
       </c>
@@ -17611,8 +19091,9 @@
       <c r="N338">
         <v>63</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O338" s="1"/>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>5043263</v>
       </c>
@@ -17655,8 +19136,9 @@
       <c r="N339">
         <v>12</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O339" s="1"/>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>7448357</v>
       </c>
@@ -17699,8 +19181,11 @@
       <c r="N340">
         <v>116</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O340" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>5179142</v>
       </c>
@@ -17743,8 +19228,11 @@
       <c r="N341">
         <v>17</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O341" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>3298969</v>
       </c>
@@ -17787,8 +19275,9 @@
       <c r="N342">
         <v>25</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O342" s="1"/>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>7504813</v>
       </c>
@@ -17831,8 +19320,11 @@
       <c r="N343">
         <v>250</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O343" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>11399017</v>
       </c>
@@ -17875,8 +19367,9 @@
       <c r="N344">
         <v>103</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O344" s="1"/>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>5526164</v>
       </c>
@@ -17919,8 +19412,11 @@
       <c r="N345">
         <v>23</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O345" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>5190697</v>
       </c>
@@ -17963,8 +19459,11 @@
       <c r="N346">
         <v>182</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O346" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>5023647</v>
       </c>
@@ -18007,8 +19506,9 @@
       <c r="N347">
         <v>21</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O347" s="1"/>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2347728</v>
       </c>
@@ -18051,8 +19551,9 @@
       <c r="N348">
         <v>46</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O348" s="1"/>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>8563039</v>
       </c>
@@ -18095,8 +19596,11 @@
       <c r="N349">
         <v>76</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O349" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>5172660</v>
       </c>
@@ -18139,8 +19643,11 @@
       <c r="N350">
         <v>44</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O350" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>679897</v>
       </c>
@@ -18183,8 +19690,11 @@
       <c r="N351">
         <v>25</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O351" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>12905400</v>
       </c>
@@ -18227,8 +19737,11 @@
       <c r="N352">
         <v>29</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O352" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>12175750</v>
       </c>
@@ -18271,8 +19784,9 @@
       <c r="N353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O353" s="1"/>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2267097</v>
       </c>
@@ -18315,8 +19829,9 @@
       <c r="N354">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O354" s="1"/>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>4452964</v>
       </c>
@@ -18359,8 +19874,11 @@
       <c r="N355">
         <v>29</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O355" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>7935944</v>
       </c>
@@ -18403,8 +19921,11 @@
       <c r="N356">
         <v>178</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O356" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4824419</v>
       </c>
@@ -18447,8 +19968,11 @@
       <c r="N357">
         <v>101</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O357" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>3753418</v>
       </c>
@@ -18491,8 +20015,9 @@
       <c r="N358">
         <v>7</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O358" s="1"/>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>7850621</v>
       </c>
@@ -18535,8 +20060,9 @@
       <c r="N359">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O359" s="1"/>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2923244</v>
       </c>
@@ -18579,8 +20105,11 @@
       <c r="N360">
         <v>54</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O360" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>6026960</v>
       </c>
@@ -18623,8 +20152,11 @@
       <c r="N361">
         <v>86</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O361" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>5349689</v>
       </c>
@@ -18667,8 +20199,11 @@
       <c r="N362">
         <v>116</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O362" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>6739885</v>
       </c>
@@ -18711,8 +20246,9 @@
       <c r="N363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O363" s="1"/>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>3790015</v>
       </c>
@@ -18755,8 +20291,9 @@
       <c r="N364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O364" s="1"/>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>14198598</v>
       </c>
@@ -18799,8 +20336,9 @@
       <c r="N365">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O365" s="1"/>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>12275204</v>
       </c>
@@ -18843,8 +20381,9 @@
       <c r="N366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O366" s="1"/>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>8573671</v>
       </c>
@@ -18887,8 +20426,9 @@
       <c r="N367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O367" s="1"/>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>3873797</v>
       </c>
@@ -18931,8 +20471,11 @@
       <c r="N368">
         <v>241</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O368" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>13819138</v>
       </c>
@@ -18975,8 +20518,9 @@
       <c r="N369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O369" s="1"/>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>3580611</v>
       </c>
@@ -19019,8 +20563,11 @@
       <c r="N370">
         <v>211</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O370" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2732863</v>
       </c>
@@ -19063,8 +20610,11 @@
       <c r="N371">
         <v>270</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O371" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>6278473</v>
       </c>
@@ -19107,8 +20657,9 @@
       <c r="N372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O372" s="1"/>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>224710</v>
       </c>
@@ -19151,8 +20702,11 @@
       <c r="N373">
         <v>106</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O373" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>8574615</v>
       </c>
@@ -19195,8 +20749,11 @@
       <c r="N374">
         <v>135</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O374" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>3174035</v>
       </c>
@@ -19239,8 +20796,11 @@
       <c r="N375">
         <v>891</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O375" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>265805</v>
       </c>
@@ -19283,8 +20843,11 @@
       <c r="N376">
         <v>575</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O376" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>6066360</v>
       </c>
@@ -19327,8 +20890,11 @@
       <c r="N377">
         <v>11</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O377" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>8533392</v>
       </c>
@@ -19371,8 +20937,9 @@
       <c r="N378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O378" s="1"/>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>11825525</v>
       </c>
@@ -19415,8 +20982,9 @@
       <c r="N379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O379" s="1"/>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2920776</v>
       </c>
@@ -19459,8 +21027,11 @@
       <c r="N380">
         <v>839</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O380" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>4209502</v>
       </c>
@@ -19503,8 +21074,11 @@
       <c r="N381">
         <v>71</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O381" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>8387063</v>
       </c>
@@ -19547,8 +21121,9 @@
       <c r="N382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O382" s="1"/>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>5526164</v>
       </c>
@@ -19591,8 +21166,11 @@
       <c r="N383">
         <v>23</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O383" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>7317043</v>
       </c>
@@ -19635,8 +21213,11 @@
       <c r="N384">
         <v>247</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O384" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>6147430</v>
       </c>
@@ -19679,8 +21260,9 @@
       <c r="N385">
         <v>16</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O385" s="1"/>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>7203850</v>
       </c>
@@ -19723,8 +21305,11 @@
       <c r="N386">
         <v>156</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O386" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>13769891</v>
       </c>
@@ -19767,8 +21352,11 @@
       <c r="N387">
         <v>9</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O387" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>5076584</v>
       </c>
@@ -19811,8 +21399,11 @@
       <c r="N388">
         <v>126</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O388" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2503491</v>
       </c>
@@ -19855,8 +21446,11 @@
       <c r="N389">
         <v>360</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O389" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8506193</v>
       </c>
@@ -19899,8 +21493,9 @@
       <c r="N390">
         <v>41</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O390" s="1"/>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>11776902</v>
       </c>
@@ -19943,8 +21538,11 @@
       <c r="N391">
         <v>25</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O391" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>7962143</v>
       </c>
@@ -19987,8 +21585,9 @@
       <c r="N392">
         <v>5</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O392" s="1"/>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1445581</v>
       </c>
@@ -20031,8 +21630,11 @@
       <c r="N393">
         <v>1083</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O393" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>11076863</v>
       </c>
@@ -20075,8 +21677,11 @@
       <c r="N394">
         <v>56</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O394" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>907659</v>
       </c>
@@ -20119,8 +21724,11 @@
       <c r="N395">
         <v>981</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O395" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1701013</v>
       </c>
@@ -20163,8 +21771,11 @@
       <c r="N396">
         <v>313</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O396" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>3230795</v>
       </c>
@@ -20207,8 +21818,11 @@
       <c r="N397">
         <v>131</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O397" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>5376600</v>
       </c>
@@ -20251,8 +21865,11 @@
       <c r="N398">
         <v>562</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O398" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>5128898</v>
       </c>
@@ -20295,8 +21912,11 @@
       <c r="N399">
         <v>335</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O399" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>87941</v>
       </c>
@@ -20339,8 +21959,11 @@
       <c r="N400">
         <v>98</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O400" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2194220</v>
       </c>
@@ -20383,8 +22006,11 @@
       <c r="N401">
         <v>121</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O401" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2231006</v>
       </c>
@@ -20427,8 +22053,11 @@
       <c r="N402">
         <v>111</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O402" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1710546</v>
       </c>
@@ -20471,8 +22100,11 @@
       <c r="N403">
         <v>213</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O403" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2260554</v>
       </c>
@@ -20515,8 +22147,11 @@
       <c r="N404">
         <v>620</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O404" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>964700</v>
       </c>
@@ -20559,8 +22194,11 @@
       <c r="N405">
         <v>60</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O405" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>12704309</v>
       </c>
@@ -20603,8 +22241,11 @@
       <c r="N406">
         <v>72</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O406" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>6078622</v>
       </c>
@@ -20647,8 +22288,11 @@
       <c r="N407">
         <v>731</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O407" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>5353807</v>
       </c>
@@ -20691,8 +22335,11 @@
       <c r="N408">
         <v>62</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O408" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>5575329</v>
       </c>
@@ -20735,8 +22382,11 @@
       <c r="N409">
         <v>68</v>
       </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O409" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>5526164</v>
       </c>
@@ -20779,8 +22429,11 @@
       <c r="N410">
         <v>23</v>
       </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O410" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2022443</v>
       </c>
@@ -20823,8 +22476,11 @@
       <c r="N411">
         <v>43</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O411" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1165587</v>
       </c>
@@ -20867,8 +22523,11 @@
       <c r="N412">
         <v>378</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O412" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>3766934</v>
       </c>
@@ -20911,8 +22570,11 @@
       <c r="N413">
         <v>1122</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O413" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>5255266</v>
       </c>
@@ -20955,8 +22617,9 @@
       <c r="N414">
         <v>6</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O414" s="1"/>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>3554159</v>
       </c>
@@ -20999,8 +22662,11 @@
       <c r="N415">
         <v>1794</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O415" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1086867</v>
       </c>
@@ -21043,8 +22709,11 @@
       <c r="N416">
         <v>567</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O416" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>7282798</v>
       </c>
@@ -21087,8 +22756,11 @@
       <c r="N417">
         <v>79</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O417" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>974593</v>
       </c>
@@ -21131,8 +22803,11 @@
       <c r="N418">
         <v>904</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O418" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>4158593</v>
       </c>
@@ -21175,8 +22850,9 @@
       <c r="N419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O419" s="1"/>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>12296294</v>
       </c>
@@ -21219,8 +22895,11 @@
       <c r="N420">
         <v>106</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O420" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>1710060</v>
       </c>
@@ -21263,8 +22942,11 @@
       <c r="N421">
         <v>134</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O421" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>783154</v>
       </c>
@@ -21307,8 +22989,11 @@
       <c r="N422">
         <v>166</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O422" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2123023</v>
       </c>
@@ -21351,8 +23036,11 @@
       <c r="N423">
         <v>85</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O423" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>7229965</v>
       </c>
@@ -21395,8 +23083,9 @@
       <c r="N424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O424" s="1"/>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>14378926</v>
       </c>
@@ -21439,8 +23128,9 @@
       <c r="N425">
         <v>30</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O425" s="1"/>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>7041003</v>
       </c>
@@ -21483,8 +23173,9 @@
       <c r="N426">
         <v>7</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O426" s="1"/>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2339242</v>
       </c>
@@ -21527,8 +23218,9 @@
       <c r="N427">
         <v>72</v>
       </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O427" s="1"/>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>6683960</v>
       </c>
@@ -21571,8 +23263,9 @@
       <c r="N428">
         <v>14</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O428" s="1"/>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>8670955</v>
       </c>
@@ -21615,8 +23308,11 @@
       <c r="N429">
         <v>319</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O429" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>12123030</v>
       </c>
@@ -21659,8 +23355,9 @@
       <c r="N430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O430" s="1"/>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>7370484</v>
       </c>
@@ -21703,8 +23400,11 @@
       <c r="N431">
         <v>72</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O431" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>7016898</v>
       </c>
@@ -21747,8 +23447,11 @@
       <c r="N432">
         <v>40</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O432" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>5120868</v>
       </c>
@@ -21791,8 +23494,11 @@
       <c r="N433">
         <v>288</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O433" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>14780306</v>
       </c>
@@ -21835,8 +23541,9 @@
       <c r="N434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O434" s="1"/>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>4339608</v>
       </c>
@@ -21879,8 +23586,11 @@
       <c r="N435">
         <v>30</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O435" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>8739351</v>
       </c>
@@ -21923,8 +23633,11 @@
       <c r="N436">
         <v>30</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O436" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>12463465</v>
       </c>
@@ -21967,8 +23680,11 @@
       <c r="N437">
         <v>23</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O437" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>5526164</v>
       </c>
@@ -22011,8 +23727,11 @@
       <c r="N438">
         <v>23</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O438" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>12753411</v>
       </c>
@@ -22055,8 +23774,9 @@
       <c r="N439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O439" s="1"/>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>13258405</v>
       </c>
@@ -22099,8 +23819,11 @@
       <c r="N440">
         <v>11</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O440" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>12648720</v>
       </c>
@@ -22143,8 +23866,9 @@
       <c r="N441">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O441" s="1"/>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>14609095</v>
       </c>
@@ -22187,8 +23911,9 @@
       <c r="N442">
         <v>40</v>
       </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O442" s="1"/>
+    </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2311999</v>
       </c>
@@ -22231,8 +23956,11 @@
       <c r="N443">
         <v>25</v>
       </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O443" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>7065951</v>
       </c>
@@ -22275,8 +24003,11 @@
       <c r="N444">
         <v>326</v>
       </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O444" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2670804</v>
       </c>
@@ -22319,8 +24050,9 @@
       <c r="N445">
         <v>10</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O445" s="1"/>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>14289008</v>
       </c>
@@ -22363,8 +24095,9 @@
       <c r="N446">
         <v>23</v>
       </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O446" s="1"/>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>8649407</v>
       </c>
@@ -22407,8 +24140,11 @@
       <c r="N447">
         <v>215</v>
       </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O447" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>8031336</v>
       </c>
@@ -22451,8 +24187,11 @@
       <c r="N448">
         <v>40</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O448" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>6665865</v>
       </c>
@@ -22495,8 +24234,9 @@
       <c r="N449">
         <v>20</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O449" s="1"/>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>6306203</v>
       </c>
@@ -22539,8 +24279,9 @@
       <c r="N450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O450" s="1"/>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>12269146</v>
       </c>
@@ -22583,8 +24324,11 @@
       <c r="N451">
         <v>36</v>
       </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O451" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>948977</v>
       </c>
@@ -22627,8 +24371,9 @@
       <c r="N452">
         <v>1</v>
       </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O452" s="1"/>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>10919146</v>
       </c>
@@ -22671,8 +24416,11 @@
       <c r="N453">
         <v>279</v>
       </c>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O453" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>5940076</v>
       </c>
@@ -22715,8 +24463,9 @@
       <c r="N454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O454" s="1"/>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>8076816</v>
       </c>
@@ -22759,8 +24508,9 @@
       <c r="N455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O455" s="1"/>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>1598601</v>
       </c>
@@ -22803,8 +24553,9 @@
       <c r="N456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O456" s="1"/>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>6503261</v>
       </c>
@@ -22847,8 +24598,11 @@
       <c r="N457">
         <v>24</v>
       </c>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O457" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>5760672</v>
       </c>
@@ -22891,8 +24645,9 @@
       <c r="N458">
         <v>2</v>
       </c>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O458" s="1"/>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>12279415</v>
       </c>
@@ -22935,8 +24690,11 @@
       <c r="N459">
         <v>25</v>
       </c>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O459" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>14373689</v>
       </c>
@@ -22979,8 +24737,9 @@
       <c r="N460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O460" s="1"/>
+    </row>
+    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>8849173</v>
       </c>
@@ -23023,8 +24782,11 @@
       <c r="N461">
         <v>80</v>
       </c>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O461" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>11941040</v>
       </c>
@@ -23067,8 +24829,11 @@
       <c r="N462">
         <v>58</v>
       </c>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O462" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>11243687</v>
       </c>
@@ -23111,8 +24876,9 @@
       <c r="N463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O463" s="1"/>
+    </row>
+    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>6121433</v>
       </c>
@@ -23155,8 +24921,11 @@
       <c r="N464">
         <v>54</v>
       </c>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O464" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>10863638</v>
       </c>
@@ -23199,8 +24968,11 @@
       <c r="N465">
         <v>52</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O465" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>11454339</v>
       </c>
@@ -23243,8 +25015,11 @@
       <c r="N466">
         <v>58</v>
       </c>
-    </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O466" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>5829861</v>
       </c>
@@ -23287,8 +25062,9 @@
       <c r="N467">
         <v>1</v>
       </c>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O467" s="1"/>
+    </row>
+    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>5526164</v>
       </c>
@@ -23331,8 +25107,11 @@
       <c r="N468">
         <v>23</v>
       </c>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O468" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>5464178</v>
       </c>
@@ -23375,8 +25154,9 @@
       <c r="N469">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O469" s="1"/>
+    </row>
+    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>5585923</v>
       </c>
@@ -23419,8 +25199,11 @@
       <c r="N470">
         <v>62</v>
       </c>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O470" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>3698502</v>
       </c>
@@ -23463,8 +25246,11 @@
       <c r="N471">
         <v>70</v>
       </c>
-    </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O471" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>11259163</v>
       </c>
@@ -23507,8 +25293,9 @@
       <c r="N472">
         <v>5</v>
       </c>
-    </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O472" s="1"/>
+    </row>
+    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>3062826</v>
       </c>
@@ -23551,8 +25338,9 @@
       <c r="N473">
         <v>15</v>
       </c>
-    </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O473" s="1"/>
+    </row>
+    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>3070604</v>
       </c>
@@ -23595,8 +25383,11 @@
       <c r="N474">
         <v>9</v>
       </c>
-    </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O474" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2302100</v>
       </c>
@@ -23639,8 +25430,11 @@
       <c r="N475">
         <v>206</v>
       </c>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O475" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>4455701</v>
       </c>
@@ -23683,8 +25477,11 @@
       <c r="N476">
         <v>21</v>
       </c>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O476" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>7203931</v>
       </c>
@@ -23727,8 +25524,11 @@
       <c r="N477">
         <v>92</v>
       </c>
-    </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O477" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>4185489</v>
       </c>
@@ -23771,8 +25571,11 @@
       <c r="N478">
         <v>18</v>
       </c>
-    </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O478" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>8669634</v>
       </c>
@@ -23815,8 +25618,11 @@
       <c r="N479">
         <v>140</v>
       </c>
-    </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O479" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>12666131</v>
       </c>
@@ -23859,8 +25665,11 @@
       <c r="N480">
         <v>74</v>
       </c>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O480" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>6531988</v>
       </c>
@@ -23903,8 +25712,11 @@
       <c r="N481">
         <v>22</v>
       </c>
-    </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O481" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>5435596</v>
       </c>
@@ -23947,8 +25759,11 @@
       <c r="N482">
         <v>186</v>
       </c>
-    </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O482" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>6473661</v>
       </c>
@@ -23991,8 +25806,11 @@
       <c r="N483">
         <v>7</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O483" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>11614012</v>
       </c>
@@ -24035,8 +25853,9 @@
       <c r="N484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O484" s="1"/>
+    </row>
+    <row r="485" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>7726313</v>
       </c>
@@ -24079,8 +25898,11 @@
       <c r="N485">
         <v>22</v>
       </c>
-    </row>
-    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O485" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>6803049</v>
       </c>
@@ -24123,8 +25945,9 @@
       <c r="N486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O486" s="1"/>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>13293577</v>
       </c>
@@ -24167,8 +25990,11 @@
       <c r="N487">
         <v>111</v>
       </c>
-    </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O487" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="488" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>3545833</v>
       </c>
@@ -24211,8 +26037,9 @@
       <c r="N488">
         <v>31</v>
       </c>
-    </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O488" s="1"/>
+    </row>
+    <row r="489" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>5952206</v>
       </c>
@@ -24255,8 +26082,11 @@
       <c r="N489">
         <v>145</v>
       </c>
-    </row>
-    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O489" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="490" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>4999717</v>
       </c>
@@ -24299,8 +26129,11 @@
       <c r="N490">
         <v>234</v>
       </c>
-    </row>
-    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O490" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>8101031</v>
       </c>
@@ -24343,8 +26176,11 @@
       <c r="N491">
         <v>124</v>
       </c>
-    </row>
-    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O491" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="492" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>11331635</v>
       </c>
@@ -24387,8 +26223,9 @@
       <c r="N492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O492" s="1"/>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>4619350</v>
       </c>
@@ -24431,8 +26268,11 @@
       <c r="N493">
         <v>1262</v>
       </c>
-    </row>
-    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O493" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>4548989</v>
       </c>
@@ -24475,8 +26315,11 @@
       <c r="N494">
         <v>652</v>
       </c>
-    </row>
-    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O494" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>3454829</v>
       </c>
@@ -24519,8 +26362,11 @@
       <c r="N495">
         <v>67</v>
       </c>
-    </row>
-    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O495" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2027551</v>
       </c>
@@ -24563,8 +26409,11 @@
       <c r="N496">
         <v>296</v>
       </c>
-    </row>
-    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O496" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>6932695</v>
       </c>
@@ -24607,8 +26456,9 @@
       <c r="N497">
         <v>3</v>
       </c>
-    </row>
-    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O497" s="1"/>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>5526164</v>
       </c>
@@ -24651,8 +26501,11 @@
       <c r="N498">
         <v>23</v>
       </c>
-    </row>
-    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O498" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>878588</v>
       </c>
@@ -24695,8 +26548,11 @@
       <c r="N499">
         <v>39</v>
       </c>
-    </row>
-    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O499" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>4391503</v>
       </c>
@@ -24739,8 +26595,11 @@
       <c r="N500">
         <v>136</v>
       </c>
-    </row>
-    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O500" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2599896</v>
       </c>
@@ -24783,8 +26642,11 @@
       <c r="N501">
         <v>23</v>
       </c>
-    </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O501" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>6732494</v>
       </c>
@@ -24827,8 +26689,11 @@
       <c r="N502">
         <v>3</v>
       </c>
-    </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O502" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>10868227</v>
       </c>
@@ -24871,8 +26736,9 @@
       <c r="N503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O503" s="1"/>
+    </row>
+    <row r="504" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>4857558</v>
       </c>
@@ -24915,8 +26781,9 @@
       <c r="N504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O504" s="1"/>
+    </row>
+    <row r="505" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2419925</v>
       </c>
@@ -24959,8 +26826,11 @@
       <c r="N505">
         <v>302</v>
       </c>
-    </row>
-    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O505" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="506" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>3706683</v>
       </c>
@@ -25003,8 +26873,11 @@
       <c r="N506">
         <v>52</v>
       </c>
-    </row>
-    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O506" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>10786471</v>
       </c>
@@ -25047,8 +26920,9 @@
       <c r="N507">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O507" s="1"/>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>12908419</v>
       </c>
@@ -25091,8 +26965,11 @@
       <c r="N508">
         <v>85</v>
       </c>
-    </row>
-    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O508" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="509" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>5765762</v>
       </c>
@@ -25135,8 +27012,11 @@
       <c r="N509">
         <v>27</v>
       </c>
-    </row>
-    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O509" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>8715486</v>
       </c>
@@ -25179,8 +27059,11 @@
       <c r="N510">
         <v>87</v>
       </c>
-    </row>
-    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O510" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>7162168</v>
       </c>
@@ -25223,8 +27106,11 @@
       <c r="N511">
         <v>195</v>
       </c>
-    </row>
-    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O511" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>12900406</v>
       </c>
@@ -25267,8 +27153,11 @@
       <c r="N512">
         <v>14</v>
       </c>
-    </row>
-    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O512" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>13527138</v>
       </c>
@@ -25311,8 +27200,9 @@
       <c r="N513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O513" s="1"/>
+    </row>
+    <row r="514" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>12384305</v>
       </c>
@@ -25355,8 +27245,11 @@
       <c r="N514">
         <v>27</v>
       </c>
-    </row>
-    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O514" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>13544323</v>
       </c>
@@ -25399,8 +27292,9 @@
       <c r="N515">
         <v>2</v>
       </c>
-    </row>
-    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O515" s="1"/>
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>12975892</v>
       </c>
@@ -25443,8 +27337,9 @@
       <c r="N516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O516" s="1"/>
+    </row>
+    <row r="517" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>11094854</v>
       </c>
@@ -25487,8 +27382,11 @@
       <c r="N517">
         <v>55</v>
       </c>
-    </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O517" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="518" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>12805729</v>
       </c>
@@ -25531,8 +27429,11 @@
       <c r="N518">
         <v>39</v>
       </c>
-    </row>
-    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O518" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="519" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>1397341</v>
       </c>
@@ -25575,8 +27476,9 @@
       <c r="N519">
         <v>1</v>
       </c>
-    </row>
-    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O519" s="1"/>
+    </row>
+    <row r="520" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>14262415</v>
       </c>
@@ -25619,8 +27521,9 @@
       <c r="N520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O520" s="1"/>
+    </row>
+    <row r="521" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>13355449</v>
       </c>
@@ -25663,8 +27566,9 @@
       <c r="N521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O521" s="1"/>
+    </row>
+    <row r="522" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>13229055</v>
       </c>
@@ -25707,8 +27611,11 @@
       <c r="N522">
         <v>61</v>
       </c>
-    </row>
-    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O522" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="523" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>1865011</v>
       </c>
@@ -25751,8 +27658,11 @@
       <c r="N523">
         <v>170</v>
       </c>
-    </row>
-    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O523" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="524" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>8899989</v>
       </c>
@@ -25795,8 +27705,11 @@
       <c r="N524">
         <v>12</v>
       </c>
-    </row>
-    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O524" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="525" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>13260034</v>
       </c>
@@ -25839,8 +27752,9 @@
       <c r="N525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O525" s="1"/>
+    </row>
+    <row r="526" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>4987828</v>
       </c>
@@ -25883,8 +27797,11 @@
       <c r="N526">
         <v>97</v>
       </c>
-    </row>
-    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O526" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="527" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>12874428</v>
       </c>
@@ -25927,8 +27844,9 @@
       <c r="N527">
         <v>1</v>
       </c>
-    </row>
-    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O527" s="1"/>
+    </row>
+    <row r="528" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>4268041</v>
       </c>
@@ -25971,8 +27889,11 @@
       <c r="N528">
         <v>497</v>
       </c>
-    </row>
-    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O528" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="529" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>8909934</v>
       </c>
@@ -26015,8 +27936,9 @@
       <c r="N529">
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O529" s="1"/>
+    </row>
+    <row r="530" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>14247757</v>
       </c>
@@ -26059,8 +27981,9 @@
       <c r="N530">
         <v>42</v>
       </c>
-    </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O530" s="1"/>
+    </row>
+    <row r="531" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>5526164</v>
       </c>
@@ -26103,8 +28026,11 @@
       <c r="N531">
         <v>23</v>
       </c>
-    </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O531" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="532" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>3841389</v>
       </c>
@@ -26147,8 +28073,11 @@
       <c r="N532">
         <v>85</v>
       </c>
-    </row>
-    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O532" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="533" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>14172569</v>
       </c>
@@ -26191,8 +28120,9 @@
       <c r="N533">
         <v>1</v>
       </c>
-    </row>
-    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O533" s="1"/>
+    </row>
+    <row r="534" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>3699661</v>
       </c>
@@ -26235,8 +28165,11 @@
       <c r="N534">
         <v>252</v>
       </c>
-    </row>
-    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O534" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="535" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>13995385</v>
       </c>
@@ -26279,8 +28212,9 @@
       <c r="N535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O535" s="1"/>
+    </row>
+    <row r="536" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>13350117</v>
       </c>
@@ -26323,8 +28257,11 @@
       <c r="N536">
         <v>34</v>
       </c>
-    </row>
-    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O536" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="537" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>12542906</v>
       </c>
@@ -26367,8 +28304,9 @@
       <c r="N537">
         <v>14</v>
       </c>
-    </row>
-    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O537" s="1"/>
+    </row>
+    <row r="538" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>1963764</v>
       </c>
@@ -26411,8 +28349,11 @@
       <c r="N538">
         <v>72</v>
       </c>
-    </row>
-    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O538" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="539" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>7415318</v>
       </c>
@@ -26455,8 +28396,11 @@
       <c r="N539">
         <v>54</v>
       </c>
-    </row>
-    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O539" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="540" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>8827644</v>
       </c>
@@ -26499,8 +28443,11 @@
       <c r="N540">
         <v>60</v>
       </c>
-    </row>
-    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O540" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="541" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>6121881</v>
       </c>
@@ -26543,8 +28490,11 @@
       <c r="N541">
         <v>60</v>
       </c>
-    </row>
-    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O541" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="542" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>8263894</v>
       </c>
@@ -26587,8 +28537,9 @@
       <c r="N542">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O542" s="1"/>
+    </row>
+    <row r="543" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>14226562</v>
       </c>
@@ -26631,8 +28582,9 @@
       <c r="N543">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O543" s="1"/>
+    </row>
+    <row r="544" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>8095475</v>
       </c>
@@ -26675,8 +28627,9 @@
       <c r="N544">
         <v>60</v>
       </c>
-    </row>
-    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O544" s="1"/>
+    </row>
+    <row r="545" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>11641863</v>
       </c>
@@ -26719,8 +28672,9 @@
       <c r="N545">
         <v>6</v>
       </c>
-    </row>
-    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O545" s="1"/>
+    </row>
+    <row r="546" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>14612262</v>
       </c>
@@ -26763,8 +28717,9 @@
       <c r="N546">
         <v>2</v>
       </c>
-    </row>
-    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O546" s="1"/>
+    </row>
+    <row r="547" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>11371385</v>
       </c>
@@ -26807,8 +28762,11 @@
       <c r="N547">
         <v>8</v>
       </c>
-    </row>
-    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O547" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="548" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>13050024</v>
       </c>
@@ -26851,8 +28809,11 @@
       <c r="N548">
         <v>35</v>
       </c>
-    </row>
-    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O548" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="549" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>2491495</v>
       </c>
@@ -26895,8 +28856,9 @@
       <c r="N549">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O549" s="1"/>
+    </row>
+    <row r="550" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>8082427</v>
       </c>
@@ -26939,8 +28901,11 @@
       <c r="N550">
         <v>54</v>
       </c>
-    </row>
-    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O550" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="551" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>12294844</v>
       </c>
@@ -26983,8 +28948,11 @@
       <c r="N551">
         <v>72</v>
       </c>
-    </row>
-    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O551" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="552" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>12693480</v>
       </c>
@@ -27027,8 +28995,11 @@
       <c r="N552">
         <v>192</v>
       </c>
-    </row>
-    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O552" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="553" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>3101671</v>
       </c>
@@ -27071,8 +29042,11 @@
       <c r="N553">
         <v>51</v>
       </c>
-    </row>
-    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O553" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="554" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>8218357</v>
       </c>
@@ -27115,8 +29089,11 @@
       <c r="N554">
         <v>61</v>
       </c>
-    </row>
-    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O554" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="555" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>11741781</v>
       </c>
@@ -27159,8 +29136,11 @@
       <c r="N555">
         <v>6</v>
       </c>
-    </row>
-    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O555" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="556" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>5544311</v>
       </c>
@@ -27203,8 +29183,11 @@
       <c r="N556">
         <v>9</v>
       </c>
-    </row>
-    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O556" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="557" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>13605875</v>
       </c>
@@ -27247,8 +29230,11 @@
       <c r="N557">
         <v>72</v>
       </c>
-    </row>
-    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O557" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="558" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>10831153</v>
       </c>
@@ -27291,8 +29277,11 @@
       <c r="N558">
         <v>22</v>
       </c>
-    </row>
-    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O558" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="559" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>5644571</v>
       </c>
@@ -27335,8 +29324,11 @@
       <c r="N559">
         <v>15</v>
       </c>
-    </row>
-    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O559" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="560" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>5526164</v>
       </c>
@@ -27379,8 +29371,11 @@
       <c r="N560">
         <v>23</v>
       </c>
-    </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O560" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="561" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>7549290</v>
       </c>
@@ -27423,8 +29418,11 @@
       <c r="N561">
         <v>81</v>
       </c>
-    </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O561" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="562" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>2847132</v>
       </c>
@@ -27467,8 +29465,9 @@
       <c r="N562">
         <v>28</v>
       </c>
-    </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O562" s="1"/>
+    </row>
+    <row r="563" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>13842428</v>
       </c>
@@ -27511,8 +29510,9 @@
       <c r="N563">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O563" s="1"/>
+    </row>
+    <row r="564" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>5465355</v>
       </c>
@@ -27555,8 +29555,9 @@
       <c r="N564">
         <v>5</v>
       </c>
-    </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O564" s="1"/>
+    </row>
+    <row r="565" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>10998273</v>
       </c>
@@ -27599,8 +29600,11 @@
       <c r="N565">
         <v>97</v>
       </c>
-    </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O565" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="566" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>6520480</v>
       </c>
@@ -27643,8 +29647,11 @@
       <c r="N566">
         <v>291</v>
       </c>
-    </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O566" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="567" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>8326409</v>
       </c>
@@ -27687,8 +29694,11 @@
       <c r="N567">
         <v>34</v>
       </c>
-    </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O567" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>5606078</v>
       </c>
@@ -27731,8 +29741,9 @@
       <c r="N568">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O568" s="1"/>
+    </row>
+    <row r="569" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>13503662</v>
       </c>
@@ -27775,8 +29786,9 @@
       <c r="N569">
         <v>2</v>
       </c>
-    </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O569" s="1"/>
+    </row>
+    <row r="570" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>13522056</v>
       </c>
@@ -27819,8 +29831,11 @@
       <c r="N570">
         <v>57</v>
       </c>
-    </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O570" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="571" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>4988295</v>
       </c>
@@ -27863,8 +29878,9 @@
       <c r="N571">
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O571" s="1"/>
+    </row>
+    <row r="572" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>8011632</v>
       </c>
@@ -27907,8 +29923,11 @@
       <c r="N572">
         <v>52</v>
       </c>
-    </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O572" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="573" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>13114514</v>
       </c>
@@ -27951,8 +29970,11 @@
       <c r="N573">
         <v>28</v>
       </c>
-    </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O573" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="574" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>6079643</v>
       </c>
@@ -27995,8 +30017,11 @@
       <c r="N574">
         <v>318</v>
       </c>
-    </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O574" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="575" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>5916750</v>
       </c>
@@ -28039,8 +30064,9 @@
       <c r="N575">
         <v>3</v>
       </c>
-    </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O575" s="1"/>
+    </row>
+    <row r="576" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>4718852</v>
       </c>
@@ -28083,8 +30109,11 @@
       <c r="N576">
         <v>44</v>
       </c>
-    </row>
-    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O576" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="577" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>8531244</v>
       </c>
@@ -28127,8 +30156,11 @@
       <c r="N577">
         <v>45</v>
       </c>
-    </row>
-    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O577" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="578" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>10456332</v>
       </c>
@@ -28171,8 +30203,11 @@
       <c r="N578">
         <v>172</v>
       </c>
-    </row>
-    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O578" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="579" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>7208242</v>
       </c>
@@ -28215,8 +30250,9 @@
       <c r="N579">
         <v>19</v>
       </c>
-    </row>
-    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O579" s="1"/>
+    </row>
+    <row r="580" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>1648755</v>
       </c>
@@ -28259,8 +30295,11 @@
       <c r="N580">
         <v>20</v>
       </c>
-    </row>
-    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O580" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="581" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>11535241</v>
       </c>
@@ -28303,8 +30342,11 @@
       <c r="N581">
         <v>8</v>
       </c>
-    </row>
-    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O581" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="582" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>13477147</v>
       </c>
@@ -28347,8 +30389,9 @@
       <c r="N582">
         <v>0</v>
       </c>
-    </row>
-    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O582" s="1"/>
+    </row>
+    <row r="583" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>4999422</v>
       </c>
@@ -28391,8 +30434,11 @@
       <c r="N583">
         <v>252</v>
       </c>
-    </row>
-    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O583" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="584" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>3289884</v>
       </c>
@@ -28435,8 +30481,9 @@
       <c r="N584">
         <v>13</v>
       </c>
-    </row>
-    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O584" s="1"/>
+    </row>
+    <row r="585" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>14116403</v>
       </c>
@@ -28479,8 +30526,11 @@
       <c r="N585">
         <v>14</v>
       </c>
-    </row>
-    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O585" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="586" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>987229</v>
       </c>
@@ -28523,8 +30573,11 @@
       <c r="N586">
         <v>32</v>
       </c>
-    </row>
-    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O586" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="587" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>414138</v>
       </c>
@@ -28567,8 +30620,11 @@
       <c r="N587">
         <v>16</v>
       </c>
-    </row>
-    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O587" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="588" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>3666126</v>
       </c>
@@ -28611,8 +30667,11 @@
       <c r="N588">
         <v>1249</v>
       </c>
-    </row>
-    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O588" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="589" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>5526164</v>
       </c>
@@ -28655,8 +30714,11 @@
       <c r="N589">
         <v>23</v>
       </c>
-    </row>
-    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O589" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="590" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>5787378</v>
       </c>
@@ -28699,8 +30761,9 @@
       <c r="N590">
         <v>0</v>
       </c>
-    </row>
-    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O590" s="1"/>
+    </row>
+    <row r="591" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>6856292</v>
       </c>
@@ -28743,8 +30806,11 @@
       <c r="N591">
         <v>29</v>
       </c>
-    </row>
-    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O591" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="592" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>27965</v>
       </c>
@@ -28787,8 +30853,9 @@
       <c r="N592">
         <v>0</v>
       </c>
-    </row>
-    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O592" s="1"/>
+    </row>
+    <row r="593" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>6294176</v>
       </c>
@@ -28831,8 +30898,9 @@
       <c r="N593">
         <v>21</v>
       </c>
-    </row>
-    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O593" s="1"/>
+    </row>
+    <row r="594" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>6465157</v>
       </c>
@@ -28875,8 +30943,9 @@
       <c r="N594">
         <v>4</v>
       </c>
-    </row>
-    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O594" s="1"/>
+    </row>
+    <row r="595" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>10754802</v>
       </c>
@@ -28919,8 +30988,11 @@
       <c r="N595">
         <v>243</v>
       </c>
-    </row>
-    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O595" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="596" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>13651548</v>
       </c>
@@ -28963,8 +31035,9 @@
       <c r="N596">
         <v>48</v>
       </c>
-    </row>
-    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O596" s="1"/>
+    </row>
+    <row r="597" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>4290745</v>
       </c>
@@ -29007,8 +31080,11 @@
       <c r="N597">
         <v>89</v>
       </c>
-    </row>
-    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O597" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="598" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>14261843</v>
       </c>
@@ -29051,8 +31127,9 @@
       <c r="N598">
         <v>0</v>
       </c>
-    </row>
-    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O598" s="1"/>
+    </row>
+    <row r="599" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>11659092</v>
       </c>
@@ -29095,8 +31172,9 @@
       <c r="N599">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O599" s="1"/>
+    </row>
+    <row r="600" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>3399203</v>
       </c>
@@ -29139,8 +31217,9 @@
       <c r="N600">
         <v>14</v>
       </c>
-    </row>
-    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O600" s="1"/>
+    </row>
+    <row r="601" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>7456111</v>
       </c>
@@ -29183,8 +31262,9 @@
       <c r="N601">
         <v>10</v>
       </c>
-    </row>
-    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O601" s="1"/>
+    </row>
+    <row r="602" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>3516132</v>
       </c>
@@ -29227,8 +31307,9 @@
       <c r="N602">
         <v>9</v>
       </c>
-    </row>
-    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O602" s="1"/>
+    </row>
+    <row r="603" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>6421569</v>
       </c>
@@ -29271,8 +31352,11 @@
       <c r="N603">
         <v>859</v>
       </c>
-    </row>
-    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O603" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="604" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>13328880</v>
       </c>
@@ -29315,8 +31399,11 @@
       <c r="N604">
         <v>117</v>
       </c>
-    </row>
-    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O604" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="605" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>4242229</v>
       </c>
@@ -29359,8 +31446,9 @@
       <c r="N605">
         <v>9</v>
       </c>
-    </row>
-    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O605" s="1"/>
+    </row>
+    <row r="606" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>4692934</v>
       </c>
@@ -29403,8 +31491,11 @@
       <c r="N606">
         <v>28</v>
       </c>
-    </row>
-    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O606" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="607" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>658922</v>
       </c>
@@ -29447,8 +31538,11 @@
       <c r="N607">
         <v>112</v>
       </c>
-    </row>
-    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O607" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="608" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>6542282</v>
       </c>
@@ -29491,8 +31585,11 @@
       <c r="N608">
         <v>430</v>
       </c>
-    </row>
-    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O608" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="609" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>11551621</v>
       </c>
@@ -29535,8 +31632,11 @@
       <c r="N609">
         <v>91</v>
       </c>
-    </row>
-    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O609" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="610" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>4043309</v>
       </c>
@@ -29579,8 +31679,11 @@
       <c r="N610">
         <v>1736</v>
       </c>
-    </row>
-    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O610" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="611" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>6338883</v>
       </c>
@@ -29623,8 +31726,11 @@
       <c r="N611">
         <v>14</v>
       </c>
-    </row>
-    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O611" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="612" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>2826766</v>
       </c>
@@ -29667,8 +31773,11 @@
       <c r="N612">
         <v>1128</v>
       </c>
-    </row>
-    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O612" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="613" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>871638</v>
       </c>
@@ -29711,8 +31820,11 @@
       <c r="N613">
         <v>19</v>
       </c>
-    </row>
-    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O613" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="614" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>12411822</v>
       </c>
@@ -29755,8 +31867,9 @@
       <c r="N614">
         <v>3</v>
       </c>
-    </row>
-    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O614" s="1"/>
+    </row>
+    <row r="615" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>1911685</v>
       </c>
@@ -29799,8 +31912,11 @@
       <c r="N615">
         <v>172</v>
       </c>
-    </row>
-    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O615" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="616" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>4266962</v>
       </c>
@@ -29843,8 +31959,11 @@
       <c r="N616">
         <v>215</v>
       </c>
-    </row>
-    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O616" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="617" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>6288999</v>
       </c>
@@ -29887,8 +32006,11 @@
       <c r="N617">
         <v>136</v>
       </c>
-    </row>
-    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O617" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="618" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>5088224</v>
       </c>
@@ -29931,8 +32053,11 @@
       <c r="N618">
         <v>29</v>
       </c>
-    </row>
-    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O618" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="619" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>5526164</v>
       </c>
@@ -29975,8 +32100,11 @@
       <c r="N619">
         <v>23</v>
       </c>
-    </row>
-    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O619" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="620" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>5853836</v>
       </c>
@@ -30019,8 +32147,11 @@
       <c r="N620">
         <v>51</v>
       </c>
-    </row>
-    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O620" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="621" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>731455</v>
       </c>
@@ -30063,8 +32194,11 @@
       <c r="N621">
         <v>26</v>
       </c>
-    </row>
-    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O621" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="622" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>6465995</v>
       </c>
@@ -30107,8 +32241,9 @@
       <c r="N622">
         <v>4</v>
       </c>
-    </row>
-    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O622" s="1"/>
+    </row>
+    <row r="623" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>1677454</v>
       </c>
@@ -30151,8 +32286,11 @@
       <c r="N623">
         <v>486</v>
       </c>
-    </row>
-    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O623" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="624" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>6225540</v>
       </c>
@@ -30195,8 +32333,9 @@
       <c r="N624">
         <v>13</v>
       </c>
-    </row>
-    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O624" s="1"/>
+    </row>
+    <row r="625" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>324579</v>
       </c>
@@ -30239,8 +32378,11 @@
       <c r="N625">
         <v>221</v>
       </c>
-    </row>
-    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O625" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="626" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>327060</v>
       </c>
@@ -30283,8 +32425,11 @@
       <c r="N626">
         <v>72</v>
       </c>
-    </row>
-    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O626" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="627" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>2656546</v>
       </c>
@@ -30327,8 +32472,11 @@
       <c r="N627">
         <v>28</v>
       </c>
-    </row>
-    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O627" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="628" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>651435</v>
       </c>
@@ -30371,8 +32519,11 @@
       <c r="N628">
         <v>165</v>
       </c>
-    </row>
-    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O628" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="629" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>7729471</v>
       </c>
@@ -30415,8 +32566,11 @@
       <c r="N629">
         <v>97</v>
       </c>
-    </row>
-    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O629" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="630" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>2629972</v>
       </c>
@@ -30459,8 +32613,11 @@
       <c r="N630">
         <v>170</v>
       </c>
-    </row>
-    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O630" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="631" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>1257569</v>
       </c>
@@ -30502,6 +32659,9 @@
       </c>
       <c r="N631">
         <v>115</v>
+      </c>
+      <c r="O631" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>

--- a/addons/xvm-stat-log/data.xlsx
+++ b/addons/xvm-stat-log/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="435" windowWidth="19875" windowHeight="7710"/>
+    <workbookView xWindow="480" yWindow="435" windowWidth="19875" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pl" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3163" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3223" uniqueCount="1723">
   <si>
     <t>T-34-85</t>
   </si>
@@ -5105,6 +5105,93 @@
   </si>
   <si>
     <t>SAMAEL_GFHF</t>
+  </si>
+  <si>
+    <t>KUROK1</t>
+  </si>
+  <si>
+    <t>BENDER_1</t>
+  </si>
+  <si>
+    <t>SAITEZ</t>
+  </si>
+  <si>
+    <t>VITALIJ567</t>
+  </si>
+  <si>
+    <t>WAW878</t>
+  </si>
+  <si>
+    <t>RAMASHRA</t>
+  </si>
+  <si>
+    <t>MAXIMSTOMA</t>
+  </si>
+  <si>
+    <t>VOVKIN91</t>
+  </si>
+  <si>
+    <t>KASHTAN57</t>
+  </si>
+  <si>
+    <t>VALDER2006</t>
+  </si>
+  <si>
+    <t>BARAN146</t>
+  </si>
+  <si>
+    <t>DIKIJG</t>
+  </si>
+  <si>
+    <t>GRIBUSOV</t>
+  </si>
+  <si>
+    <t>ALSALI</t>
+  </si>
+  <si>
+    <t>ZEMLANIN59</t>
+  </si>
+  <si>
+    <t>KOSTYATT</t>
+  </si>
+  <si>
+    <t>SAM_GSM</t>
+  </si>
+  <si>
+    <t>KOMBAT______</t>
+  </si>
+  <si>
+    <t>BARABEKA32</t>
+  </si>
+  <si>
+    <t>KS1974</t>
+  </si>
+  <si>
+    <t>PLAYER7500</t>
+  </si>
+  <si>
+    <t>LEHENZE</t>
+  </si>
+  <si>
+    <t>SERGAA_1977</t>
+  </si>
+  <si>
+    <t>SLAVA_RYBAK</t>
+  </si>
+  <si>
+    <t>NOHCHO05</t>
+  </si>
+  <si>
+    <t>_VEYD_</t>
+  </si>
+  <si>
+    <t>BALAN1973</t>
+  </si>
+  <si>
+    <t>MIXA_31</t>
+  </si>
+  <si>
+    <t>ANTIWHITEBEARD</t>
   </si>
 </sst>
 </file>
@@ -5205,8 +5292,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица1" displayName="Таблица1" ref="A1:T1564" totalsRowShown="0">
-  <autoFilter ref="A1:T1564"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица14" displayName="Таблица14" ref="A1:T1594" totalsRowShown="0">
+  <autoFilter ref="A1:T1594"/>
   <tableColumns count="20">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="name"/>
@@ -5234,8 +5321,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица12" displayName="Таблица12" ref="A1:Q107" totalsRowShown="0">
-  <autoFilter ref="A1:Q107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица1" displayName="Таблица1" ref="A1:Q109" totalsRowShown="0">
+  <autoFilter ref="A1:Q109"/>
   <tableColumns count="17">
     <tableColumn id="1" name="created"/>
     <tableColumn id="2" name="winTeam"/>
@@ -5546,10 +5633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1564"/>
+  <dimension ref="A1:T1594"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O1564"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O1594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -101116,6 +101203,1842 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="1565" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1565">
+        <v>1744106</v>
+      </c>
+      <c r="B1565" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C1565" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1565">
+        <v>33962867</v>
+      </c>
+      <c r="E1565">
+        <v>9821</v>
+      </c>
+      <c r="F1565">
+        <v>50</v>
+      </c>
+      <c r="G1565">
+        <v>6</v>
+      </c>
+      <c r="H1565">
+        <v>51</v>
+      </c>
+      <c r="I1565">
+        <v>54</v>
+      </c>
+      <c r="J1565">
+        <v>930</v>
+      </c>
+      <c r="K1565">
+        <v>946</v>
+      </c>
+      <c r="L1565">
+        <v>0</v>
+      </c>
+      <c r="M1565">
+        <v>4930</v>
+      </c>
+      <c r="N1565">
+        <v>29</v>
+      </c>
+      <c r="O1565" s="2">
+        <v>265</v>
+      </c>
+      <c r="P1565">
+        <v>5995800</v>
+      </c>
+      <c r="Q1565">
+        <v>7716</v>
+      </c>
+      <c r="R1565">
+        <v>6438</v>
+      </c>
+      <c r="S1565">
+        <v>8883</v>
+      </c>
+      <c r="T1565">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1566">
+        <v>811817</v>
+      </c>
+      <c r="B1566" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C1566" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1566">
+        <v>33962852</v>
+      </c>
+      <c r="E1566">
+        <v>8061</v>
+      </c>
+      <c r="F1566">
+        <v>50</v>
+      </c>
+      <c r="G1566">
+        <v>5</v>
+      </c>
+      <c r="H1566">
+        <v>434</v>
+      </c>
+      <c r="I1566">
+        <v>55</v>
+      </c>
+      <c r="J1566">
+        <v>990</v>
+      </c>
+      <c r="K1566">
+        <v>969</v>
+      </c>
+      <c r="L1566">
+        <v>49</v>
+      </c>
+      <c r="M1566">
+        <v>4020</v>
+      </c>
+      <c r="N1566">
+        <v>240</v>
+      </c>
+      <c r="O1566" s="2">
+        <v>1201</v>
+      </c>
+      <c r="P1566">
+        <v>5518241</v>
+      </c>
+      <c r="Q1566">
+        <v>6295</v>
+      </c>
+      <c r="R1566">
+        <v>5389</v>
+      </c>
+      <c r="S1566">
+        <v>6111</v>
+      </c>
+      <c r="T1566">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1567">
+        <v>14522351</v>
+      </c>
+      <c r="B1567" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C1567" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1567">
+        <v>33962869</v>
+      </c>
+      <c r="E1567">
+        <v>71</v>
+      </c>
+      <c r="F1567">
+        <v>41</v>
+      </c>
+      <c r="G1567">
+        <v>3</v>
+      </c>
+      <c r="H1567">
+        <v>4</v>
+      </c>
+      <c r="I1567">
+        <v>41</v>
+      </c>
+      <c r="J1567">
+        <v>280</v>
+      </c>
+      <c r="K1567">
+        <v>1</v>
+      </c>
+      <c r="L1567">
+        <v>0</v>
+      </c>
+      <c r="M1567">
+        <v>29</v>
+      </c>
+      <c r="N1567">
+        <v>2</v>
+      </c>
+      <c r="O1567" s="1"/>
+      <c r="P1567">
+        <v>4294</v>
+      </c>
+      <c r="Q1567">
+        <v>24</v>
+      </c>
+      <c r="R1567">
+        <v>21</v>
+      </c>
+      <c r="S1567">
+        <v>28</v>
+      </c>
+      <c r="T1567">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1568">
+        <v>5078437</v>
+      </c>
+      <c r="B1568" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1568" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1568">
+        <v>33962850</v>
+      </c>
+      <c r="E1568">
+        <v>3782</v>
+      </c>
+      <c r="F1568">
+        <v>46</v>
+      </c>
+      <c r="G1568">
+        <v>4</v>
+      </c>
+      <c r="H1568">
+        <v>24</v>
+      </c>
+      <c r="I1568">
+        <v>47</v>
+      </c>
+      <c r="J1568">
+        <v>650</v>
+      </c>
+      <c r="K1568">
+        <v>308</v>
+      </c>
+      <c r="L1568">
+        <v>43</v>
+      </c>
+      <c r="M1568">
+        <v>1747</v>
+      </c>
+      <c r="N1568">
+        <v>12</v>
+      </c>
+      <c r="O1568" s="2">
+        <v>263</v>
+      </c>
+      <c r="P1568">
+        <v>642386</v>
+      </c>
+      <c r="Q1568">
+        <v>1336</v>
+      </c>
+      <c r="R1568">
+        <v>3325</v>
+      </c>
+      <c r="S1568">
+        <v>1376</v>
+      </c>
+      <c r="T1568">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1569">
+        <v>1675746</v>
+      </c>
+      <c r="B1569" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C1569" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1569">
+        <v>33962865</v>
+      </c>
+      <c r="E1569">
+        <v>24048</v>
+      </c>
+      <c r="F1569">
+        <v>51</v>
+      </c>
+      <c r="G1569">
+        <v>6</v>
+      </c>
+      <c r="H1569">
+        <v>21</v>
+      </c>
+      <c r="I1569">
+        <v>48</v>
+      </c>
+      <c r="J1569">
+        <v>1200</v>
+      </c>
+      <c r="K1569">
+        <v>1303</v>
+      </c>
+      <c r="L1569">
+        <v>50</v>
+      </c>
+      <c r="M1569">
+        <v>12186</v>
+      </c>
+      <c r="N1569">
+        <v>8</v>
+      </c>
+      <c r="O1569" s="1"/>
+      <c r="P1569">
+        <v>29505689</v>
+      </c>
+      <c r="Q1569">
+        <v>24781</v>
+      </c>
+      <c r="R1569">
+        <v>21172</v>
+      </c>
+      <c r="S1569">
+        <v>17859</v>
+      </c>
+      <c r="T1569">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1570">
+        <v>13045077</v>
+      </c>
+      <c r="B1570" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C1570" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1570">
+        <v>33962861</v>
+      </c>
+      <c r="E1570">
+        <v>1744</v>
+      </c>
+      <c r="F1570">
+        <v>48</v>
+      </c>
+      <c r="G1570">
+        <v>6</v>
+      </c>
+      <c r="H1570">
+        <v>437</v>
+      </c>
+      <c r="I1570">
+        <v>46</v>
+      </c>
+      <c r="J1570">
+        <v>900</v>
+      </c>
+      <c r="K1570">
+        <v>547</v>
+      </c>
+      <c r="L1570">
+        <v>46</v>
+      </c>
+      <c r="M1570">
+        <v>830</v>
+      </c>
+      <c r="N1570">
+        <v>200</v>
+      </c>
+      <c r="O1570" s="2">
+        <v>512</v>
+      </c>
+      <c r="P1570">
+        <v>516917</v>
+      </c>
+      <c r="Q1570">
+        <v>977</v>
+      </c>
+      <c r="R1570">
+        <v>1750</v>
+      </c>
+      <c r="S1570">
+        <v>773</v>
+      </c>
+      <c r="T1570">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1571">
+        <v>3258578</v>
+      </c>
+      <c r="B1571" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C1571" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1571">
+        <v>33962866</v>
+      </c>
+      <c r="E1571">
+        <v>659</v>
+      </c>
+      <c r="F1571">
+        <v>51</v>
+      </c>
+      <c r="G1571">
+        <v>0</v>
+      </c>
+      <c r="H1571">
+        <v>0</v>
+      </c>
+      <c r="I1571">
+        <v>51</v>
+      </c>
+      <c r="J1571">
+        <v>600</v>
+      </c>
+      <c r="K1571">
+        <v>135</v>
+      </c>
+      <c r="L1571">
+        <v>0</v>
+      </c>
+      <c r="M1571">
+        <v>334</v>
+      </c>
+      <c r="N1571">
+        <v>0</v>
+      </c>
+      <c r="O1571" s="1"/>
+      <c r="P1571">
+        <v>37833</v>
+      </c>
+      <c r="Q1571">
+        <v>198</v>
+      </c>
+      <c r="R1571">
+        <v>368</v>
+      </c>
+      <c r="S1571">
+        <v>533</v>
+      </c>
+      <c r="T1571">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1572">
+        <v>1946296</v>
+      </c>
+      <c r="B1572" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C1572" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1572">
+        <v>33962856</v>
+      </c>
+      <c r="E1572">
+        <v>3160</v>
+      </c>
+      <c r="F1572">
+        <v>50</v>
+      </c>
+      <c r="G1572">
+        <v>5</v>
+      </c>
+      <c r="H1572">
+        <v>38</v>
+      </c>
+      <c r="I1572">
+        <v>49</v>
+      </c>
+      <c r="J1572">
+        <v>910</v>
+      </c>
+      <c r="K1572">
+        <v>871</v>
+      </c>
+      <c r="L1572">
+        <v>49</v>
+      </c>
+      <c r="M1572">
+        <v>1587</v>
+      </c>
+      <c r="N1572">
+        <v>18</v>
+      </c>
+      <c r="O1572" s="1"/>
+      <c r="P1572">
+        <v>1537774</v>
+      </c>
+      <c r="Q1572">
+        <v>2381</v>
+      </c>
+      <c r="R1572">
+        <v>2973</v>
+      </c>
+      <c r="S1572">
+        <v>2560</v>
+      </c>
+      <c r="T1572">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1573">
+        <v>11655686</v>
+      </c>
+      <c r="B1573" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C1573" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1573">
+        <v>33962841</v>
+      </c>
+      <c r="E1573">
+        <v>2578</v>
+      </c>
+      <c r="F1573">
+        <v>46</v>
+      </c>
+      <c r="G1573">
+        <v>6</v>
+      </c>
+      <c r="H1573">
+        <v>18</v>
+      </c>
+      <c r="I1573">
+        <v>45</v>
+      </c>
+      <c r="J1573">
+        <v>520</v>
+      </c>
+      <c r="K1573">
+        <v>321</v>
+      </c>
+      <c r="L1573">
+        <v>0</v>
+      </c>
+      <c r="M1573">
+        <v>1174</v>
+      </c>
+      <c r="N1573">
+        <v>7</v>
+      </c>
+      <c r="O1573" s="1"/>
+      <c r="P1573">
+        <v>529630</v>
+      </c>
+      <c r="Q1573">
+        <v>987</v>
+      </c>
+      <c r="R1573">
+        <v>1318</v>
+      </c>
+      <c r="S1573">
+        <v>1383</v>
+      </c>
+      <c r="T1573">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1574">
+        <v>6303071</v>
+      </c>
+      <c r="B1574" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1574" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1574">
+        <v>33962864</v>
+      </c>
+      <c r="E1574">
+        <v>1920</v>
+      </c>
+      <c r="F1574">
+        <v>48</v>
+      </c>
+      <c r="G1574">
+        <v>0</v>
+      </c>
+      <c r="H1574">
+        <v>0</v>
+      </c>
+      <c r="I1574">
+        <v>48</v>
+      </c>
+      <c r="J1574">
+        <v>790</v>
+      </c>
+      <c r="K1574">
+        <v>572</v>
+      </c>
+      <c r="L1574">
+        <v>47</v>
+      </c>
+      <c r="M1574">
+        <v>923</v>
+      </c>
+      <c r="N1574">
+        <v>0</v>
+      </c>
+      <c r="O1574" s="1"/>
+      <c r="P1574">
+        <v>494676</v>
+      </c>
+      <c r="Q1574">
+        <v>1354</v>
+      </c>
+      <c r="R1574">
+        <v>1506</v>
+      </c>
+      <c r="S1574">
+        <v>1179</v>
+      </c>
+      <c r="T1574">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1575">
+        <v>12436634</v>
+      </c>
+      <c r="B1575" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C1575" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1575">
+        <v>33962848</v>
+      </c>
+      <c r="E1575">
+        <v>2140</v>
+      </c>
+      <c r="F1575">
+        <v>45</v>
+      </c>
+      <c r="G1575">
+        <v>6</v>
+      </c>
+      <c r="H1575">
+        <v>123</v>
+      </c>
+      <c r="I1575">
+        <v>38</v>
+      </c>
+      <c r="J1575">
+        <v>510</v>
+      </c>
+      <c r="K1575">
+        <v>184</v>
+      </c>
+      <c r="L1575">
+        <v>44</v>
+      </c>
+      <c r="M1575">
+        <v>973</v>
+      </c>
+      <c r="N1575">
+        <v>47</v>
+      </c>
+      <c r="O1575" s="2">
+        <v>1</v>
+      </c>
+      <c r="P1575">
+        <v>287765</v>
+      </c>
+      <c r="Q1575">
+        <v>568</v>
+      </c>
+      <c r="R1575">
+        <v>1183</v>
+      </c>
+      <c r="S1575">
+        <v>520</v>
+      </c>
+      <c r="T1575">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1576">
+        <v>6869003</v>
+      </c>
+      <c r="B1576" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1576" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1576">
+        <v>33962844</v>
+      </c>
+      <c r="E1576">
+        <v>4109</v>
+      </c>
+      <c r="F1576">
+        <v>46</v>
+      </c>
+      <c r="G1576">
+        <v>6</v>
+      </c>
+      <c r="H1576">
+        <v>62</v>
+      </c>
+      <c r="I1576">
+        <v>42</v>
+      </c>
+      <c r="J1576">
+        <v>670</v>
+      </c>
+      <c r="K1576">
+        <v>454</v>
+      </c>
+      <c r="L1576">
+        <v>47</v>
+      </c>
+      <c r="M1576">
+        <v>1888</v>
+      </c>
+      <c r="N1576">
+        <v>24</v>
+      </c>
+      <c r="O1576" s="2">
+        <v>212</v>
+      </c>
+      <c r="P1576">
+        <v>1200464</v>
+      </c>
+      <c r="Q1576">
+        <v>1937</v>
+      </c>
+      <c r="R1576">
+        <v>3120</v>
+      </c>
+      <c r="S1576">
+        <v>1321</v>
+      </c>
+      <c r="T1576">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1577">
+        <v>4279374</v>
+      </c>
+      <c r="B1577" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C1577" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1577">
+        <v>33962857</v>
+      </c>
+      <c r="E1577">
+        <v>9228</v>
+      </c>
+      <c r="F1577">
+        <v>50</v>
+      </c>
+      <c r="G1577">
+        <v>6</v>
+      </c>
+      <c r="H1577">
+        <v>1</v>
+      </c>
+      <c r="I1577">
+        <v>51</v>
+      </c>
+      <c r="J1577">
+        <v>1130</v>
+      </c>
+      <c r="K1577">
+        <v>1158</v>
+      </c>
+      <c r="L1577">
+        <v>50</v>
+      </c>
+      <c r="M1577">
+        <v>4652</v>
+      </c>
+      <c r="N1577">
+        <v>1</v>
+      </c>
+      <c r="O1577" s="1"/>
+      <c r="P1577">
+        <v>7926922</v>
+      </c>
+      <c r="Q1577">
+        <v>8082</v>
+      </c>
+      <c r="R1577">
+        <v>8308</v>
+      </c>
+      <c r="S1577">
+        <v>9607</v>
+      </c>
+      <c r="T1577">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1578">
+        <v>3278115</v>
+      </c>
+      <c r="B1578" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1578" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1578">
+        <v>33962849</v>
+      </c>
+      <c r="E1578">
+        <v>4210</v>
+      </c>
+      <c r="F1578">
+        <v>47</v>
+      </c>
+      <c r="G1578">
+        <v>6</v>
+      </c>
+      <c r="H1578">
+        <v>836</v>
+      </c>
+      <c r="I1578">
+        <v>45</v>
+      </c>
+      <c r="J1578">
+        <v>820</v>
+      </c>
+      <c r="K1578">
+        <v>521</v>
+      </c>
+      <c r="L1578">
+        <v>0</v>
+      </c>
+      <c r="M1578">
+        <v>1977</v>
+      </c>
+      <c r="N1578">
+        <v>379</v>
+      </c>
+      <c r="O1578" s="2">
+        <v>570</v>
+      </c>
+      <c r="P1578">
+        <v>1163376</v>
+      </c>
+      <c r="Q1578">
+        <v>2073</v>
+      </c>
+      <c r="R1578">
+        <v>1627</v>
+      </c>
+      <c r="S1578">
+        <v>4652</v>
+      </c>
+      <c r="T1578">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1579">
+        <v>13878610</v>
+      </c>
+      <c r="B1579" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C1579" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1579">
+        <v>33962859</v>
+      </c>
+      <c r="E1579">
+        <v>512</v>
+      </c>
+      <c r="F1579">
+        <v>48</v>
+      </c>
+      <c r="G1579">
+        <v>5</v>
+      </c>
+      <c r="H1579">
+        <v>137</v>
+      </c>
+      <c r="I1579">
+        <v>47</v>
+      </c>
+      <c r="J1579">
+        <v>820</v>
+      </c>
+      <c r="K1579">
+        <v>482</v>
+      </c>
+      <c r="L1579">
+        <v>46</v>
+      </c>
+      <c r="M1579">
+        <v>244</v>
+      </c>
+      <c r="N1579">
+        <v>65</v>
+      </c>
+      <c r="O1579" s="2">
+        <v>1</v>
+      </c>
+      <c r="P1579">
+        <v>114240</v>
+      </c>
+      <c r="Q1579">
+        <v>364</v>
+      </c>
+      <c r="R1579">
+        <v>191</v>
+      </c>
+      <c r="S1579">
+        <v>469</v>
+      </c>
+      <c r="T1579">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1580">
+        <v>8207032</v>
+      </c>
+      <c r="B1580" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1580" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1580">
+        <v>33962858</v>
+      </c>
+      <c r="E1580">
+        <v>1107</v>
+      </c>
+      <c r="F1580">
+        <v>47</v>
+      </c>
+      <c r="G1580">
+        <v>5</v>
+      </c>
+      <c r="H1580">
+        <v>159</v>
+      </c>
+      <c r="I1580">
+        <v>40</v>
+      </c>
+      <c r="J1580">
+        <v>870</v>
+      </c>
+      <c r="K1580">
+        <v>305</v>
+      </c>
+      <c r="L1580">
+        <v>0</v>
+      </c>
+      <c r="M1580">
+        <v>520</v>
+      </c>
+      <c r="N1580">
+        <v>64</v>
+      </c>
+      <c r="O1580" s="2">
+        <v>1</v>
+      </c>
+      <c r="P1580">
+        <v>147442</v>
+      </c>
+      <c r="Q1580">
+        <v>573</v>
+      </c>
+      <c r="R1580">
+        <v>1158</v>
+      </c>
+      <c r="S1580">
+        <v>672</v>
+      </c>
+      <c r="T1580">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1581">
+        <v>5268273</v>
+      </c>
+      <c r="B1581" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C1581" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1581">
+        <v>33962854</v>
+      </c>
+      <c r="E1581">
+        <v>1304</v>
+      </c>
+      <c r="F1581">
+        <v>46</v>
+      </c>
+      <c r="G1581">
+        <v>6</v>
+      </c>
+      <c r="H1581">
+        <v>67</v>
+      </c>
+      <c r="I1581">
+        <v>42</v>
+      </c>
+      <c r="J1581">
+        <v>810</v>
+      </c>
+      <c r="K1581">
+        <v>431</v>
+      </c>
+      <c r="L1581">
+        <v>42</v>
+      </c>
+      <c r="M1581">
+        <v>603</v>
+      </c>
+      <c r="N1581">
+        <v>27</v>
+      </c>
+      <c r="O1581" s="2">
+        <v>1</v>
+      </c>
+      <c r="P1581">
+        <v>291629</v>
+      </c>
+      <c r="Q1581">
+        <v>607</v>
+      </c>
+      <c r="R1581">
+        <v>1006</v>
+      </c>
+      <c r="S1581">
+        <v>957</v>
+      </c>
+      <c r="T1581">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1582">
+        <v>6349845</v>
+      </c>
+      <c r="B1582" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1582" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1582">
+        <v>33962846</v>
+      </c>
+      <c r="E1582">
+        <v>9761</v>
+      </c>
+      <c r="F1582">
+        <v>51</v>
+      </c>
+      <c r="G1582">
+        <v>5</v>
+      </c>
+      <c r="H1582">
+        <v>647</v>
+      </c>
+      <c r="I1582">
+        <v>54</v>
+      </c>
+      <c r="J1582">
+        <v>1110</v>
+      </c>
+      <c r="K1582">
+        <v>1078</v>
+      </c>
+      <c r="L1582">
+        <v>50</v>
+      </c>
+      <c r="M1582">
+        <v>5001</v>
+      </c>
+      <c r="N1582">
+        <v>349</v>
+      </c>
+      <c r="O1582" s="2">
+        <v>1258</v>
+      </c>
+      <c r="P1582">
+        <v>6721638</v>
+      </c>
+      <c r="Q1582">
+        <v>7800</v>
+      </c>
+      <c r="R1582">
+        <v>13761</v>
+      </c>
+      <c r="S1582">
+        <v>5932</v>
+      </c>
+      <c r="T1582">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1583">
+        <v>5663451</v>
+      </c>
+      <c r="B1583" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C1583" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1583">
+        <v>33962863</v>
+      </c>
+      <c r="E1583">
+        <v>11522</v>
+      </c>
+      <c r="F1583">
+        <v>51</v>
+      </c>
+      <c r="G1583">
+        <v>6</v>
+      </c>
+      <c r="H1583">
+        <v>44</v>
+      </c>
+      <c r="I1583">
+        <v>55</v>
+      </c>
+      <c r="J1583">
+        <v>1050</v>
+      </c>
+      <c r="K1583">
+        <v>1050</v>
+      </c>
+      <c r="L1583">
+        <v>51</v>
+      </c>
+      <c r="M1583">
+        <v>5894</v>
+      </c>
+      <c r="N1583">
+        <v>26</v>
+      </c>
+      <c r="O1583" s="2">
+        <v>999</v>
+      </c>
+      <c r="P1583">
+        <v>9560405</v>
+      </c>
+      <c r="Q1583">
+        <v>8676</v>
+      </c>
+      <c r="R1583">
+        <v>12010</v>
+      </c>
+      <c r="S1583">
+        <v>4957</v>
+      </c>
+      <c r="T1583">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1584">
+        <v>580565</v>
+      </c>
+      <c r="B1584" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C1584" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1584">
+        <v>33962870</v>
+      </c>
+      <c r="E1584">
+        <v>12945</v>
+      </c>
+      <c r="F1584">
+        <v>47</v>
+      </c>
+      <c r="G1584">
+        <v>6</v>
+      </c>
+      <c r="H1584">
+        <v>1</v>
+      </c>
+      <c r="I1584">
+        <v>48</v>
+      </c>
+      <c r="J1584">
+        <v>880</v>
+      </c>
+      <c r="K1584">
+        <v>819</v>
+      </c>
+      <c r="L1584">
+        <v>47</v>
+      </c>
+      <c r="M1584">
+        <v>6068</v>
+      </c>
+      <c r="N1584">
+        <v>1</v>
+      </c>
+      <c r="O1584" s="1"/>
+      <c r="P1584">
+        <v>9166755</v>
+      </c>
+      <c r="Q1584">
+        <v>8290</v>
+      </c>
+      <c r="R1584">
+        <v>12887</v>
+      </c>
+      <c r="S1584">
+        <v>6251</v>
+      </c>
+      <c r="T1584">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1585">
+        <v>7507757</v>
+      </c>
+      <c r="B1585" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C1585" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1585">
+        <v>33962853</v>
+      </c>
+      <c r="E1585">
+        <v>1479</v>
+      </c>
+      <c r="F1585">
+        <v>48</v>
+      </c>
+      <c r="G1585">
+        <v>0</v>
+      </c>
+      <c r="H1585">
+        <v>0</v>
+      </c>
+      <c r="I1585">
+        <v>48</v>
+      </c>
+      <c r="J1585">
+        <v>640</v>
+      </c>
+      <c r="K1585">
+        <v>398</v>
+      </c>
+      <c r="L1585">
+        <v>45</v>
+      </c>
+      <c r="M1585">
+        <v>707</v>
+      </c>
+      <c r="N1585">
+        <v>0</v>
+      </c>
+      <c r="O1585" s="1"/>
+      <c r="P1585">
+        <v>281550</v>
+      </c>
+      <c r="Q1585">
+        <v>722</v>
+      </c>
+      <c r="R1585">
+        <v>761</v>
+      </c>
+      <c r="S1585">
+        <v>1247</v>
+      </c>
+      <c r="T1585">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1586">
+        <v>4584200</v>
+      </c>
+      <c r="B1586" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1586" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1586">
+        <v>33962842</v>
+      </c>
+      <c r="E1586">
+        <v>10195</v>
+      </c>
+      <c r="F1586">
+        <v>52</v>
+      </c>
+      <c r="G1586">
+        <v>6</v>
+      </c>
+      <c r="H1586">
+        <v>331</v>
+      </c>
+      <c r="I1586">
+        <v>53</v>
+      </c>
+      <c r="J1586">
+        <v>1020</v>
+      </c>
+      <c r="K1586">
+        <v>1213</v>
+      </c>
+      <c r="L1586">
+        <v>52</v>
+      </c>
+      <c r="M1586">
+        <v>5302</v>
+      </c>
+      <c r="N1586">
+        <v>176</v>
+      </c>
+      <c r="O1586" s="2">
+        <v>1260</v>
+      </c>
+      <c r="P1586">
+        <v>8426904</v>
+      </c>
+      <c r="Q1586">
+        <v>9940</v>
+      </c>
+      <c r="R1586">
+        <v>6551</v>
+      </c>
+      <c r="S1586">
+        <v>10709</v>
+      </c>
+      <c r="T1586">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1587">
+        <v>12105427</v>
+      </c>
+      <c r="B1587" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C1587" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1587">
+        <v>33962860</v>
+      </c>
+      <c r="E1587">
+        <v>1816</v>
+      </c>
+      <c r="F1587">
+        <v>47</v>
+      </c>
+      <c r="G1587">
+        <v>5</v>
+      </c>
+      <c r="H1587">
+        <v>60</v>
+      </c>
+      <c r="I1587">
+        <v>47</v>
+      </c>
+      <c r="J1587">
+        <v>570</v>
+      </c>
+      <c r="K1587">
+        <v>277</v>
+      </c>
+      <c r="L1587">
+        <v>47</v>
+      </c>
+      <c r="M1587">
+        <v>854</v>
+      </c>
+      <c r="N1587">
+        <v>28</v>
+      </c>
+      <c r="O1587" s="2">
+        <v>1</v>
+      </c>
+      <c r="P1587">
+        <v>293956</v>
+      </c>
+      <c r="Q1587">
+        <v>668</v>
+      </c>
+      <c r="R1587">
+        <v>1094</v>
+      </c>
+      <c r="S1587">
+        <v>756</v>
+      </c>
+      <c r="T1587">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1588">
+        <v>14303400</v>
+      </c>
+      <c r="B1588" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1588" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1588">
+        <v>33962851</v>
+      </c>
+      <c r="E1588">
+        <v>867</v>
+      </c>
+      <c r="F1588">
+        <v>46</v>
+      </c>
+      <c r="G1588">
+        <v>5</v>
+      </c>
+      <c r="H1588">
+        <v>61</v>
+      </c>
+      <c r="I1588">
+        <v>53</v>
+      </c>
+      <c r="J1588">
+        <v>420</v>
+      </c>
+      <c r="K1588">
+        <v>5</v>
+      </c>
+      <c r="L1588">
+        <v>43</v>
+      </c>
+      <c r="M1588">
+        <v>395</v>
+      </c>
+      <c r="N1588">
+        <v>35</v>
+      </c>
+      <c r="O1588" s="1"/>
+      <c r="P1588">
+        <v>46326</v>
+      </c>
+      <c r="Q1588">
+        <v>202</v>
+      </c>
+      <c r="R1588">
+        <v>392</v>
+      </c>
+      <c r="S1588">
+        <v>488</v>
+      </c>
+      <c r="T1588">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1589">
+        <v>12199049</v>
+      </c>
+      <c r="B1589" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C1589" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1589">
+        <v>33962855</v>
+      </c>
+      <c r="E1589">
+        <v>2169</v>
+      </c>
+      <c r="F1589">
+        <v>50</v>
+      </c>
+      <c r="G1589">
+        <v>6</v>
+      </c>
+      <c r="H1589">
+        <v>32</v>
+      </c>
+      <c r="I1589">
+        <v>43</v>
+      </c>
+      <c r="J1589">
+        <v>980</v>
+      </c>
+      <c r="K1589">
+        <v>696</v>
+      </c>
+      <c r="L1589">
+        <v>47</v>
+      </c>
+      <c r="M1589">
+        <v>1082</v>
+      </c>
+      <c r="N1589">
+        <v>9</v>
+      </c>
+      <c r="O1589" s="1"/>
+      <c r="P1589">
+        <v>774348</v>
+      </c>
+      <c r="Q1589">
+        <v>1228</v>
+      </c>
+      <c r="R1589">
+        <v>2052</v>
+      </c>
+      <c r="S1589">
+        <v>1960</v>
+      </c>
+      <c r="T1589">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1590">
+        <v>519821</v>
+      </c>
+      <c r="B1590" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1590" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1590">
+        <v>33962845</v>
+      </c>
+      <c r="E1590">
+        <v>12266</v>
+      </c>
+      <c r="F1590">
+        <v>62</v>
+      </c>
+      <c r="G1590">
+        <v>4</v>
+      </c>
+      <c r="H1590">
+        <v>1508</v>
+      </c>
+      <c r="I1590">
+        <v>71</v>
+      </c>
+      <c r="J1590">
+        <v>1900</v>
+      </c>
+      <c r="K1590">
+        <v>2075</v>
+      </c>
+      <c r="L1590">
+        <v>61</v>
+      </c>
+      <c r="M1590">
+        <v>7639</v>
+      </c>
+      <c r="N1590">
+        <v>1078</v>
+      </c>
+      <c r="O1590" s="2">
+        <v>2350</v>
+      </c>
+      <c r="P1590">
+        <v>12675757</v>
+      </c>
+      <c r="Q1590">
+        <v>23654</v>
+      </c>
+      <c r="R1590">
+        <v>17127</v>
+      </c>
+      <c r="S1590">
+        <v>20731</v>
+      </c>
+      <c r="T1590">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1591">
+        <v>6346841</v>
+      </c>
+      <c r="B1591" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C1591" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1591">
+        <v>33962862</v>
+      </c>
+      <c r="E1591">
+        <v>7202</v>
+      </c>
+      <c r="F1591">
+        <v>50</v>
+      </c>
+      <c r="G1591">
+        <v>5</v>
+      </c>
+      <c r="H1591">
+        <v>280</v>
+      </c>
+      <c r="I1591">
+        <v>44</v>
+      </c>
+      <c r="J1591">
+        <v>990</v>
+      </c>
+      <c r="K1591">
+        <v>930</v>
+      </c>
+      <c r="L1591">
+        <v>50</v>
+      </c>
+      <c r="M1591">
+        <v>3592</v>
+      </c>
+      <c r="N1591">
+        <v>123</v>
+      </c>
+      <c r="O1591" s="2">
+        <v>267</v>
+      </c>
+      <c r="P1591">
+        <v>4367480</v>
+      </c>
+      <c r="Q1591">
+        <v>5531</v>
+      </c>
+      <c r="R1591">
+        <v>5731</v>
+      </c>
+      <c r="S1591">
+        <v>5239</v>
+      </c>
+      <c r="T1591">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1592">
+        <v>6168969</v>
+      </c>
+      <c r="B1592" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C1592" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1592">
+        <v>33962843</v>
+      </c>
+      <c r="E1592">
+        <v>2674</v>
+      </c>
+      <c r="F1592">
+        <v>47</v>
+      </c>
+      <c r="G1592">
+        <v>0</v>
+      </c>
+      <c r="H1592">
+        <v>0</v>
+      </c>
+      <c r="I1592">
+        <v>47</v>
+      </c>
+      <c r="J1592">
+        <v>710</v>
+      </c>
+      <c r="K1592">
+        <v>386</v>
+      </c>
+      <c r="L1592">
+        <v>48</v>
+      </c>
+      <c r="M1592">
+        <v>1262</v>
+      </c>
+      <c r="N1592">
+        <v>0</v>
+      </c>
+      <c r="O1592" s="1"/>
+      <c r="P1592">
+        <v>531479</v>
+      </c>
+      <c r="Q1592">
+        <v>813</v>
+      </c>
+      <c r="R1592">
+        <v>3223</v>
+      </c>
+      <c r="S1592">
+        <v>681</v>
+      </c>
+      <c r="T1592">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1593">
+        <v>4360344</v>
+      </c>
+      <c r="B1593" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C1593" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1593">
+        <v>33962847</v>
+      </c>
+      <c r="E1593">
+        <v>14467</v>
+      </c>
+      <c r="F1593">
+        <v>50</v>
+      </c>
+      <c r="G1593">
+        <v>6</v>
+      </c>
+      <c r="H1593">
+        <v>30</v>
+      </c>
+      <c r="I1593">
+        <v>49</v>
+      </c>
+      <c r="J1593">
+        <v>850</v>
+      </c>
+      <c r="K1593">
+        <v>1069</v>
+      </c>
+      <c r="L1593">
+        <v>49</v>
+      </c>
+      <c r="M1593">
+        <v>7302</v>
+      </c>
+      <c r="N1593">
+        <v>14</v>
+      </c>
+      <c r="O1593" s="2">
+        <v>1</v>
+      </c>
+      <c r="P1593">
+        <v>11239697</v>
+      </c>
+      <c r="Q1593">
+        <v>13028</v>
+      </c>
+      <c r="R1593">
+        <v>9885</v>
+      </c>
+      <c r="S1593">
+        <v>9184</v>
+      </c>
+      <c r="T1593">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1594">
+        <v>6618477</v>
+      </c>
+      <c r="B1594" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C1594" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1594">
+        <v>33962868</v>
+      </c>
+      <c r="E1594">
+        <v>9524</v>
+      </c>
+      <c r="F1594">
+        <v>50</v>
+      </c>
+      <c r="G1594">
+        <v>6</v>
+      </c>
+      <c r="H1594">
+        <v>1730</v>
+      </c>
+      <c r="I1594">
+        <v>48</v>
+      </c>
+      <c r="J1594">
+        <v>880</v>
+      </c>
+      <c r="K1594">
+        <v>790</v>
+      </c>
+      <c r="L1594">
+        <v>49</v>
+      </c>
+      <c r="M1594">
+        <v>4762</v>
+      </c>
+      <c r="N1594">
+        <v>833</v>
+      </c>
+      <c r="O1594" s="2">
+        <v>1067</v>
+      </c>
+      <c r="P1594">
+        <v>4601984</v>
+      </c>
+      <c r="Q1594">
+        <v>6174</v>
+      </c>
+      <c r="R1594">
+        <v>8630</v>
+      </c>
+      <c r="S1594">
+        <v>5451</v>
+      </c>
+      <c r="T1594">
+        <v>4.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -101126,9 +103049,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q107"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -106809,6 +108734,112 @@
         <v>48125472</v>
       </c>
     </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1360267001</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>33962841</v>
+      </c>
+      <c r="D108">
+        <v>33962855</v>
+      </c>
+      <c r="E108">
+        <v>33962844</v>
+      </c>
+      <c r="F108">
+        <v>33962845</v>
+      </c>
+      <c r="G108">
+        <v>33962860</v>
+      </c>
+      <c r="H108">
+        <v>33962866</v>
+      </c>
+      <c r="I108">
+        <v>33962862</v>
+      </c>
+      <c r="J108">
+        <v>33962863</v>
+      </c>
+      <c r="K108">
+        <v>33962864</v>
+      </c>
+      <c r="L108">
+        <v>33962852</v>
+      </c>
+      <c r="M108">
+        <v>33962867</v>
+      </c>
+      <c r="N108">
+        <v>33962868</v>
+      </c>
+      <c r="O108">
+        <v>33962869</v>
+      </c>
+      <c r="P108">
+        <v>33962870</v>
+      </c>
+      <c r="Q108">
+        <v>33962861</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1360267001</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>33962842</v>
+      </c>
+      <c r="D109">
+        <v>33962857</v>
+      </c>
+      <c r="E109">
+        <v>33962853</v>
+      </c>
+      <c r="F109">
+        <v>33962858</v>
+      </c>
+      <c r="G109">
+        <v>33962859</v>
+      </c>
+      <c r="H109">
+        <v>33962846</v>
+      </c>
+      <c r="I109">
+        <v>33962847</v>
+      </c>
+      <c r="J109">
+        <v>33962848</v>
+      </c>
+      <c r="K109">
+        <v>33962865</v>
+      </c>
+      <c r="L109">
+        <v>33962849</v>
+      </c>
+      <c r="M109">
+        <v>33962850</v>
+      </c>
+      <c r="N109">
+        <v>33962851</v>
+      </c>
+      <c r="O109">
+        <v>33962854</v>
+      </c>
+      <c r="P109">
+        <v>33962843</v>
+      </c>
+      <c r="Q109">
+        <v>33962856</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
